--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类城市居民消费价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类城市居民消费价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -507,4932 +507,4932 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.3</v>
+        <v>101.9</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="E3" t="n">
-        <v>101.9</v>
+        <v>102.7</v>
       </c>
       <c r="F3" t="n">
-        <v>96.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="G3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="H3" t="n">
-        <v>104.8</v>
+        <v>109.4</v>
       </c>
       <c r="I3" t="n">
-        <v>100.8</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.5</v>
+        <v>107.1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>101.3</v>
+        <v>100.2</v>
       </c>
       <c r="E4" t="n">
-        <v>104.6</v>
+        <v>103.1</v>
       </c>
       <c r="F4" t="n">
-        <v>99.09999999999999</v>
+        <v>102.2</v>
       </c>
       <c r="G4" t="n">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
       <c r="H4" t="n">
-        <v>105.4</v>
+        <v>111.2</v>
       </c>
       <c r="I4" t="n">
-        <v>98.7</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.9</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>102.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>100.3</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>102.1</v>
+        <v>99.7</v>
       </c>
       <c r="H5" t="n">
-        <v>109.4</v>
+        <v>100.6</v>
       </c>
       <c r="I5" t="n">
-        <v>103.4</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>103.1</v>
+        <v>98.8</v>
       </c>
       <c r="F6" t="n">
-        <v>102.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>102.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2</v>
+        <v>96.7</v>
       </c>
       <c r="I6" t="n">
-        <v>106.4</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.09999999999999</v>
+        <v>100.53500874</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>99.90000000000001</v>
+        <v>100.09244146</v>
       </c>
       <c r="E7" t="n">
-        <v>97.59999999999999</v>
+        <v>106.23137619</v>
       </c>
       <c r="F7" t="n">
-        <v>97</v>
+        <v>105.76223846</v>
       </c>
       <c r="G7" t="n">
-        <v>99.7</v>
+        <v>100.37023977</v>
       </c>
       <c r="H7" t="n">
-        <v>100.6</v>
+        <v>98.21300328</v>
       </c>
       <c r="I7" t="n">
-        <v>104.3</v>
+        <v>86.67389421999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.90000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="E8" t="n">
-        <v>98.8</v>
+        <v>106.9</v>
       </c>
       <c r="F8" t="n">
-        <v>99.59999999999999</v>
+        <v>102.4</v>
       </c>
       <c r="G8" t="n">
-        <v>99.40000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="H8" t="n">
-        <v>96.7</v>
+        <v>88.5</v>
       </c>
       <c r="I8" t="n">
-        <v>97.7</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.53500874</v>
+        <v>99.2</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>100.09244146</v>
+        <v>100.9</v>
       </c>
       <c r="E9" t="n">
-        <v>106.23137619</v>
+        <v>106.7</v>
       </c>
       <c r="F9" t="n">
-        <v>105.76223846</v>
+        <v>107.2</v>
       </c>
       <c r="G9" t="n">
-        <v>100.37023977</v>
+        <v>103.1</v>
       </c>
       <c r="H9" t="n">
-        <v>98.21300328</v>
+        <v>99.3</v>
       </c>
       <c r="I9" t="n">
-        <v>86.67389421999999</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.3</v>
+        <v>98.8</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="E10" t="n">
-        <v>106.9</v>
+        <v>98.7</v>
       </c>
       <c r="F10" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="G10" t="n">
-        <v>101.1</v>
+        <v>100.3</v>
       </c>
       <c r="H10" t="n">
-        <v>88.5</v>
+        <v>105.1</v>
       </c>
       <c r="I10" t="n">
-        <v>95.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="E11" t="n">
-        <v>106.7</v>
+        <v>101.9</v>
       </c>
       <c r="F11" t="n">
-        <v>107.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>103.1</v>
+        <v>101.4</v>
       </c>
       <c r="H11" t="n">
-        <v>99.3</v>
+        <v>104.8</v>
       </c>
       <c r="I11" t="n">
-        <v>107.9</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.8</v>
+        <v>101.5</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>100.7</v>
+        <v>101.3</v>
       </c>
       <c r="E12" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>98.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>102</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>105.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.40000000000001</v>
+        <v>104.7</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="E13" t="n">
-        <v>97.09999999999999</v>
+        <v>104.4</v>
       </c>
       <c r="F13" t="n">
-        <v>95.8</v>
+        <v>101.3</v>
       </c>
       <c r="G13" t="n">
-        <v>99.3</v>
+        <v>103.4</v>
       </c>
       <c r="H13" t="n">
-        <v>101.1</v>
+        <v>105.7</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.2</v>
+        <v>111.9</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="E14" t="n">
-        <v>97.59999999999999</v>
+        <v>106</v>
       </c>
       <c r="F14" t="n">
-        <v>95.59999999999999</v>
+        <v>103.6</v>
       </c>
       <c r="G14" t="n">
-        <v>99.09999999999999</v>
+        <v>107.4</v>
       </c>
       <c r="H14" t="n">
-        <v>104.4</v>
+        <v>108.8</v>
       </c>
       <c r="I14" t="n">
-        <v>98</v>
+        <v>137.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.87774971</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>99.91692519999999</v>
+        <v>100.5</v>
       </c>
       <c r="E15" t="n">
-        <v>101.23236395</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>98.01545827</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>100.79092869</v>
+        <v>98</v>
       </c>
       <c r="H15" t="n">
-        <v>102.685815</v>
+        <v>96.8</v>
       </c>
       <c r="I15" t="n">
-        <v>106.11010736</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.7</v>
+        <v>102.84041872</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100.8</v>
+        <v>100.40356515</v>
       </c>
       <c r="E16" t="n">
-        <v>104.4</v>
+        <v>100.39726985</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3</v>
+        <v>99.59139019</v>
       </c>
       <c r="G16" t="n">
-        <v>103.4</v>
+        <v>99.91951312</v>
       </c>
       <c r="H16" t="n">
-        <v>105.7</v>
+        <v>104.68757484</v>
       </c>
       <c r="I16" t="n">
-        <v>107.7</v>
+        <v>90.55036776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>111.9</v>
+        <v>102.2</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="E17" t="n">
-        <v>106</v>
+        <v>99.2</v>
       </c>
       <c r="F17" t="n">
-        <v>103.6</v>
+        <v>104</v>
       </c>
       <c r="G17" t="n">
-        <v>107.4</v>
+        <v>98.7</v>
       </c>
       <c r="H17" t="n">
-        <v>108.8</v>
+        <v>96</v>
       </c>
       <c r="I17" t="n">
-        <v>137.4</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.09999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>100.5</v>
       </c>
       <c r="E18" t="n">
-        <v>97.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="F18" t="n">
-        <v>94.90000000000001</v>
+        <v>102.4</v>
       </c>
       <c r="G18" t="n">
-        <v>98</v>
+        <v>99.2</v>
       </c>
       <c r="H18" t="n">
-        <v>96.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>87.2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.84041872</v>
+        <v>100.1</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>100.40356515</v>
+        <v>100.3</v>
       </c>
       <c r="E19" t="n">
-        <v>100.39726985</v>
+        <v>99</v>
       </c>
       <c r="F19" t="n">
-        <v>99.59139019</v>
+        <v>99.3</v>
       </c>
       <c r="G19" t="n">
-        <v>99.91951312</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>104.68757484</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>90.55036776</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.2</v>
+        <v>97.5</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="E20" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="H20" t="n">
-        <v>96</v>
+        <v>101.3</v>
       </c>
       <c r="I20" t="n">
-        <v>84.3</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>99</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>102.4</v>
+        <v>95.8</v>
       </c>
       <c r="G21" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="H21" t="n">
-        <v>92.09999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="I21" t="n">
-        <v>94</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.1</v>
+        <v>98.2</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>99</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>99.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>94.09999999999999</v>
+        <v>104.4</v>
       </c>
       <c r="I22" t="n">
-        <v>104.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.5</v>
+        <v>100.87774971</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>100.4</v>
+        <v>99.91692519999999</v>
       </c>
       <c r="E23" t="n">
-        <v>98.90000000000001</v>
+        <v>101.23236395</v>
       </c>
       <c r="F23" t="n">
-        <v>105</v>
+        <v>98.01545827</v>
       </c>
       <c r="G23" t="n">
-        <v>99.8</v>
+        <v>100.79092869</v>
       </c>
       <c r="H23" t="n">
-        <v>101.3</v>
+        <v>102.685815</v>
       </c>
       <c r="I23" t="n">
-        <v>101.3</v>
+        <v>106.11010736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.98069201</v>
+        <v>105.67427196</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>100.54141901</v>
+        <v>100.2293053</v>
       </c>
       <c r="E24" t="n">
-        <v>99.82154608</v>
+        <v>102.26566584</v>
       </c>
       <c r="F24" t="n">
-        <v>96.76945139</v>
+        <v>100.5702271</v>
       </c>
       <c r="G24" t="n">
-        <v>99.20906041000001</v>
+        <v>103.37865174</v>
       </c>
       <c r="H24" t="n">
-        <v>96.32089664999999</v>
+        <v>102.97705487</v>
       </c>
       <c r="I24" t="n">
-        <v>95.12941502</v>
+        <v>122.25668842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.14859538</v>
+        <v>103.5</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>100.68583982</v>
+        <v>100.9</v>
       </c>
       <c r="E25" t="n">
-        <v>99.70413198999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>97.39396368</v>
+        <v>99.3</v>
       </c>
       <c r="G25" t="n">
-        <v>100.48266841</v>
+        <v>100.9</v>
       </c>
       <c r="H25" t="n">
-        <v>97.61266594</v>
+        <v>104</v>
       </c>
       <c r="I25" t="n">
-        <v>105.59927099</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.97721373</v>
+        <v>100.14148934</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>101.23216337</v>
+        <v>100.42148266</v>
       </c>
       <c r="E26" t="n">
-        <v>101.4442852</v>
+        <v>96.78224233</v>
       </c>
       <c r="F26" t="n">
-        <v>100.60466779</v>
+        <v>102.40212084</v>
       </c>
       <c r="G26" t="n">
-        <v>102.97477099</v>
+        <v>99.17407079</v>
       </c>
       <c r="H26" t="n">
-        <v>102.90928211</v>
+        <v>105.50791921</v>
       </c>
       <c r="I26" t="n">
-        <v>117.07496068</v>
+        <v>94.45248201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.67427196</v>
+        <v>99.92130625</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>100.2293053</v>
+        <v>100.74539804</v>
       </c>
       <c r="E27" t="n">
-        <v>102.26566584</v>
+        <v>97.11343841999999</v>
       </c>
       <c r="F27" t="n">
-        <v>100.5702271</v>
+        <v>101.92967223</v>
       </c>
       <c r="G27" t="n">
-        <v>103.37865174</v>
+        <v>99.46952237000001</v>
       </c>
       <c r="H27" t="n">
-        <v>102.97705487</v>
+        <v>108.53518732</v>
       </c>
       <c r="I27" t="n">
-        <v>122.25668842</v>
+        <v>93.09495783</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.5</v>
+        <v>99.08296497000001</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>100.9</v>
+        <v>100.39714321</v>
       </c>
       <c r="E28" t="n">
-        <v>99.59999999999999</v>
+        <v>101.24243487</v>
       </c>
       <c r="F28" t="n">
-        <v>99.3</v>
+        <v>97.6517315</v>
       </c>
       <c r="G28" t="n">
-        <v>100.9</v>
+        <v>99.67189996</v>
       </c>
       <c r="H28" t="n">
-        <v>104</v>
+        <v>98.03950223</v>
       </c>
       <c r="I28" t="n">
-        <v>104.1</v>
+        <v>97.32288235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.14148934</v>
+        <v>98.32183796</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>100.42148266</v>
+        <v>100.39590764</v>
       </c>
       <c r="E29" t="n">
-        <v>96.78224233</v>
+        <v>103.28534055</v>
       </c>
       <c r="F29" t="n">
-        <v>102.40212084</v>
+        <v>105.63721214</v>
       </c>
       <c r="G29" t="n">
-        <v>99.17407079</v>
+        <v>101.19884041</v>
       </c>
       <c r="H29" t="n">
-        <v>105.50791921</v>
+        <v>94.7501802</v>
       </c>
       <c r="I29" t="n">
-        <v>94.45248201</v>
+        <v>110.16272881</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.92130625</v>
+        <v>97.52027167</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>100.74539804</v>
+        <v>100.58958394</v>
       </c>
       <c r="E30" t="n">
-        <v>97.11343841999999</v>
+        <v>101.9037699</v>
       </c>
       <c r="F30" t="n">
-        <v>101.92967223</v>
+        <v>104.12795493</v>
       </c>
       <c r="G30" t="n">
-        <v>99.46952237000001</v>
+        <v>100.55616538</v>
       </c>
       <c r="H30" t="n">
-        <v>108.53518732</v>
+        <v>96.24279934</v>
       </c>
       <c r="I30" t="n">
-        <v>93.09495783</v>
+        <v>104.49682633</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.08296497000001</v>
+        <v>99.98069201</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>100.39714321</v>
+        <v>100.54141901</v>
       </c>
       <c r="E31" t="n">
-        <v>101.24243487</v>
+        <v>99.82154608</v>
       </c>
       <c r="F31" t="n">
-        <v>97.6517315</v>
+        <v>96.76945139</v>
       </c>
       <c r="G31" t="n">
-        <v>99.67189996</v>
+        <v>99.20906041000001</v>
       </c>
       <c r="H31" t="n">
-        <v>98.03950223</v>
+        <v>96.32089664999999</v>
       </c>
       <c r="I31" t="n">
-        <v>97.32288235</v>
+        <v>95.12941502</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.32183796</v>
+        <v>100.14859538</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>100.39590764</v>
+        <v>100.68583982</v>
       </c>
       <c r="E32" t="n">
-        <v>103.28534055</v>
+        <v>99.70413198999999</v>
       </c>
       <c r="F32" t="n">
-        <v>105.63721214</v>
+        <v>97.39396368</v>
       </c>
       <c r="G32" t="n">
-        <v>101.19884041</v>
+        <v>100.48266841</v>
       </c>
       <c r="H32" t="n">
-        <v>94.7501802</v>
+        <v>97.61266594</v>
       </c>
       <c r="I32" t="n">
-        <v>110.16272881</v>
+        <v>105.59927099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>97.52027167</v>
+        <v>102.97721373</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>100.58958394</v>
+        <v>101.23216337</v>
       </c>
       <c r="E33" t="n">
-        <v>101.9037699</v>
+        <v>101.4442852</v>
       </c>
       <c r="F33" t="n">
-        <v>104.12795493</v>
+        <v>100.60466779</v>
       </c>
       <c r="G33" t="n">
-        <v>100.55616538</v>
+        <v>102.97477099</v>
       </c>
       <c r="H33" t="n">
-        <v>96.24279934</v>
+        <v>102.90928211</v>
       </c>
       <c r="I33" t="n">
-        <v>104.49682633</v>
+        <v>117.07496068</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.12238249</v>
+        <v>103.80956761</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>100.69121422</v>
+        <v>101.29712282</v>
       </c>
       <c r="E34" t="n">
-        <v>100.99132496</v>
+        <v>100.75794072</v>
       </c>
       <c r="F34" t="n">
-        <v>97.37869103</v>
+        <v>101.35233729</v>
       </c>
       <c r="G34" t="n">
-        <v>101.10855591</v>
+        <v>101.88732361</v>
       </c>
       <c r="H34" t="n">
-        <v>101.13306929</v>
+        <v>107.29153427</v>
       </c>
       <c r="I34" t="n">
-        <v>105.46574098</v>
+        <v>104.93775852</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.83298912</v>
+        <v>108.25691693</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>102.52542068</v>
+        <v>100.81097544</v>
       </c>
       <c r="E35" t="n">
-        <v>102.54704636</v>
+        <v>101.28354911</v>
       </c>
       <c r="F35" t="n">
-        <v>103.9805833</v>
+        <v>101.45066549</v>
       </c>
       <c r="G35" t="n">
-        <v>101.89306847</v>
+        <v>103.3769426</v>
       </c>
       <c r="H35" t="n">
-        <v>106.8987777</v>
+        <v>113.14831913</v>
       </c>
       <c r="I35" t="n">
-        <v>97.96515304</v>
+        <v>111.0683341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.95561455</v>
+        <v>96.73840753</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>102.18792143</v>
+        <v>101.05555843</v>
       </c>
       <c r="E36" t="n">
-        <v>102.02775753</v>
+        <v>95.67844248</v>
       </c>
       <c r="F36" t="n">
-        <v>101.72792998</v>
+        <v>96.93255401</v>
       </c>
       <c r="G36" t="n">
-        <v>100.9452644</v>
+        <v>98.46491519</v>
       </c>
       <c r="H36" t="n">
-        <v>108.69508414</v>
+        <v>100.63439036</v>
       </c>
       <c r="I36" t="n">
-        <v>90.14387537</v>
+        <v>95.81513346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.80956761</v>
+        <v>99.57742755</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>101.29712282</v>
+        <v>101.77048701</v>
       </c>
       <c r="E37" t="n">
-        <v>100.75794072</v>
+        <v>97.12736544000001</v>
       </c>
       <c r="F37" t="n">
-        <v>101.35233729</v>
+        <v>98.69166765</v>
       </c>
       <c r="G37" t="n">
-        <v>101.88732361</v>
+        <v>99.87765836</v>
       </c>
       <c r="H37" t="n">
-        <v>107.29153427</v>
+        <v>103.45399194</v>
       </c>
       <c r="I37" t="n">
-        <v>104.93775852</v>
+        <v>99.68521426</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108.25691693</v>
+        <v>100.05495365</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>100.81097544</v>
+        <v>101.37806055</v>
       </c>
       <c r="E38" t="n">
-        <v>101.28354911</v>
+        <v>99.4776933</v>
       </c>
       <c r="F38" t="n">
-        <v>101.45066549</v>
+        <v>100.37159652</v>
       </c>
       <c r="G38" t="n">
-        <v>103.3769426</v>
+        <v>99.51102195</v>
       </c>
       <c r="H38" t="n">
-        <v>113.14831913</v>
+        <v>104.78910752</v>
       </c>
       <c r="I38" t="n">
-        <v>111.0683341</v>
+        <v>90.37253359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>96.73840753</v>
+        <v>100.73225413</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>101.05555843</v>
+        <v>100.78354656</v>
       </c>
       <c r="E39" t="n">
-        <v>95.67844248</v>
+        <v>100.08664243</v>
       </c>
       <c r="F39" t="n">
-        <v>96.93255401</v>
+        <v>101.61241037</v>
       </c>
       <c r="G39" t="n">
-        <v>98.46491519</v>
+        <v>98.33931848</v>
       </c>
       <c r="H39" t="n">
-        <v>100.63439036</v>
+        <v>94.62292436</v>
       </c>
       <c r="I39" t="n">
-        <v>95.81513346</v>
+        <v>85.51213099</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.57742755</v>
+        <v>100.07265099</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>101.77048701</v>
+        <v>100.44384944</v>
       </c>
       <c r="E40" t="n">
-        <v>97.12736544000001</v>
+        <v>103.50364797</v>
       </c>
       <c r="F40" t="n">
-        <v>98.69166765</v>
+        <v>102.75784985</v>
       </c>
       <c r="G40" t="n">
-        <v>99.87765836</v>
+        <v>100.80465946</v>
       </c>
       <c r="H40" t="n">
-        <v>103.45399194</v>
+        <v>93.33687098</v>
       </c>
       <c r="I40" t="n">
-        <v>99.68521426</v>
+        <v>104.64254511</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.05495365</v>
+        <v>99.26405094</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>101.37806055</v>
+        <v>100.53546899</v>
       </c>
       <c r="E41" t="n">
-        <v>99.4776933</v>
+        <v>104.59469958</v>
       </c>
       <c r="F41" t="n">
-        <v>100.37159652</v>
+        <v>107.92419819</v>
       </c>
       <c r="G41" t="n">
-        <v>99.51102195</v>
+        <v>101.80170971</v>
       </c>
       <c r="H41" t="n">
-        <v>104.78910752</v>
+        <v>97.35634451</v>
       </c>
       <c r="I41" t="n">
-        <v>90.37253359</v>
+        <v>107.37581804</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.73225413</v>
+        <v>99.87964181</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>100.78354656</v>
+        <v>100.7010806</v>
       </c>
       <c r="E42" t="n">
-        <v>100.08664243</v>
+        <v>101.7449668</v>
       </c>
       <c r="F42" t="n">
-        <v>101.61241037</v>
+        <v>104.25300086</v>
       </c>
       <c r="G42" t="n">
-        <v>98.33931848</v>
+        <v>101.11862101</v>
       </c>
       <c r="H42" t="n">
-        <v>94.62292436</v>
+        <v>101.39173219</v>
       </c>
       <c r="I42" t="n">
-        <v>85.51213099</v>
+        <v>103.21070754</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.07265099</v>
+        <v>100.12238249</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>100.44384944</v>
+        <v>100.69121422</v>
       </c>
       <c r="E43" t="n">
-        <v>103.50364797</v>
+        <v>100.99132496</v>
       </c>
       <c r="F43" t="n">
-        <v>102.75784985</v>
+        <v>97.37869103</v>
       </c>
       <c r="G43" t="n">
-        <v>100.80465946</v>
+        <v>101.10855591</v>
       </c>
       <c r="H43" t="n">
-        <v>93.33687098</v>
+        <v>101.13306929</v>
       </c>
       <c r="I43" t="n">
-        <v>104.64254511</v>
+        <v>105.46574098</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.26405094</v>
+        <v>100.83298912</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>100.53546899</v>
+        <v>102.52542068</v>
       </c>
       <c r="E44" t="n">
-        <v>104.59469958</v>
+        <v>102.54704636</v>
       </c>
       <c r="F44" t="n">
-        <v>107.92419819</v>
+        <v>103.9805833</v>
       </c>
       <c r="G44" t="n">
-        <v>101.80170971</v>
+        <v>101.89306847</v>
       </c>
       <c r="H44" t="n">
-        <v>97.35634451</v>
+        <v>106.8987777</v>
       </c>
       <c r="I44" t="n">
-        <v>107.37581804</v>
+        <v>97.96515304</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.87964181</v>
+        <v>101.95561455</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>100.7010806</v>
+        <v>102.18792143</v>
       </c>
       <c r="E45" t="n">
-        <v>101.7449668</v>
+        <v>102.02775753</v>
       </c>
       <c r="F45" t="n">
-        <v>104.25300086</v>
+        <v>101.72792998</v>
       </c>
       <c r="G45" t="n">
-        <v>101.11862101</v>
+        <v>100.9452644</v>
       </c>
       <c r="H45" t="n">
-        <v>101.39173219</v>
+        <v>108.69508414</v>
       </c>
       <c r="I45" t="n">
-        <v>103.21070754</v>
+        <v>90.14387537</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.54973079</v>
+        <v>104.08492989</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100.46164549</v>
+        <v>101.21714846</v>
       </c>
       <c r="E46" t="n">
-        <v>99.60448819</v>
+        <v>101.26447013</v>
       </c>
       <c r="F46" t="n">
-        <v>96.23843755999999</v>
+        <v>102.19160672</v>
       </c>
       <c r="G46" t="n">
-        <v>99.89329615</v>
+        <v>102.8399599</v>
       </c>
       <c r="H46" t="n">
-        <v>106.08175013</v>
+        <v>106.947308</v>
       </c>
       <c r="I46" t="n">
-        <v>96.30475826</v>
+        <v>114.46987655</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.33715044</v>
+        <v>106.37462717</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.25226139</v>
+        <v>100.78910437</v>
       </c>
       <c r="E47" t="n">
-        <v>97.50347931</v>
+        <v>103.46190337</v>
       </c>
       <c r="F47" t="n">
-        <v>96.09445525</v>
+        <v>100.84446344</v>
       </c>
       <c r="G47" t="n">
-        <v>99.31764978</v>
+        <v>103.68187099</v>
       </c>
       <c r="H47" t="n">
-        <v>106.95680629</v>
+        <v>108.33498007</v>
       </c>
       <c r="I47" t="n">
-        <v>94.04819757999999</v>
+        <v>115.28697223</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101.1187632</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.18314411</v>
+        <v>101.2</v>
       </c>
       <c r="E48" t="n">
-        <v>99.38460335000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>98.12112181000001</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
-        <v>101.35622699</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>102.89569815</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>114.35777587</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>104.08492989</v>
+        <v>100.9</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>101.21714846</v>
+        <v>100.7</v>
       </c>
       <c r="E49" t="n">
-        <v>101.26447013</v>
+        <v>100.5</v>
       </c>
       <c r="F49" t="n">
-        <v>102.19160672</v>
+        <v>99</v>
       </c>
       <c r="G49" t="n">
-        <v>102.8399599</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>106.947308</v>
+        <v>104</v>
       </c>
       <c r="I49" t="n">
-        <v>114.46987655</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>106.37462717</v>
+        <v>100.3</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>100.78910437</v>
+        <v>100.6</v>
       </c>
       <c r="E50" t="n">
-        <v>103.46190337</v>
+        <v>101.6</v>
       </c>
       <c r="F50" t="n">
-        <v>100.84446344</v>
+        <v>104.6</v>
       </c>
       <c r="G50" t="n">
-        <v>103.68187099</v>
+        <v>99.7</v>
       </c>
       <c r="H50" t="n">
-        <v>108.33498007</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>115.28697223</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>97.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="E51" t="n">
-        <v>99.09999999999999</v>
+        <v>106.2</v>
       </c>
       <c r="F51" t="n">
-        <v>93</v>
+        <v>104.4</v>
       </c>
       <c r="G51" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="H51" t="n">
-        <v>99.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="I51" t="n">
-        <v>93.8</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.9</v>
+        <v>100.90577061</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>100.7</v>
+        <v>100.36733771</v>
       </c>
       <c r="E52" t="n">
-        <v>100.5</v>
+        <v>104.75824781</v>
       </c>
       <c r="F52" t="n">
-        <v>99</v>
+        <v>100.63567542</v>
       </c>
       <c r="G52" t="n">
-        <v>99.59999999999999</v>
+        <v>101.14882963</v>
       </c>
       <c r="H52" t="n">
-        <v>104</v>
+        <v>90.01835364999999</v>
       </c>
       <c r="I52" t="n">
-        <v>88.59999999999999</v>
+        <v>104.3670023</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.3</v>
+        <v>99.05769436</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>100.6</v>
+        <v>100.52603301</v>
       </c>
       <c r="E53" t="n">
-        <v>101.6</v>
+        <v>101.50177492</v>
       </c>
       <c r="F53" t="n">
-        <v>104.6</v>
+        <v>104.58145595</v>
       </c>
       <c r="G53" t="n">
-        <v>99.7</v>
+        <v>100.54783829</v>
       </c>
       <c r="H53" t="n">
-        <v>97.09999999999999</v>
+        <v>95.78868239000001</v>
       </c>
       <c r="I53" t="n">
-        <v>90.8</v>
+        <v>99.87110271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>102</v>
+        <v>99.30748094</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>100.3</v>
+        <v>100.50823568</v>
       </c>
       <c r="E54" t="n">
-        <v>106.2</v>
+        <v>101.32701984</v>
       </c>
       <c r="F54" t="n">
-        <v>104.4</v>
+        <v>102.35064769</v>
       </c>
       <c r="G54" t="n">
-        <v>100.8</v>
+        <v>101.09519293</v>
       </c>
       <c r="H54" t="n">
-        <v>86</v>
+        <v>103.04784123</v>
       </c>
       <c r="I54" t="n">
-        <v>99.7</v>
+        <v>104.7673938</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100.90577061</v>
+        <v>98.54973079</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>100.36733771</v>
+        <v>100.46164549</v>
       </c>
       <c r="E55" t="n">
-        <v>104.75824781</v>
+        <v>99.60448819</v>
       </c>
       <c r="F55" t="n">
-        <v>100.63567542</v>
+        <v>96.23843755999999</v>
       </c>
       <c r="G55" t="n">
-        <v>101.14882963</v>
+        <v>99.89329615</v>
       </c>
       <c r="H55" t="n">
-        <v>90.01835364999999</v>
+        <v>106.08175013</v>
       </c>
       <c r="I55" t="n">
-        <v>104.3670023</v>
+        <v>96.30475826</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.05769436</v>
+        <v>99.33715044</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>100.52603301</v>
+        <v>100.25226139</v>
       </c>
       <c r="E56" t="n">
-        <v>101.50177492</v>
+        <v>97.50347931</v>
       </c>
       <c r="F56" t="n">
-        <v>104.58145595</v>
+        <v>96.09445525</v>
       </c>
       <c r="G56" t="n">
-        <v>100.54783829</v>
+        <v>99.31764978</v>
       </c>
       <c r="H56" t="n">
-        <v>95.78868239000001</v>
+        <v>106.95680629</v>
       </c>
       <c r="I56" t="n">
-        <v>99.87110271</v>
+        <v>94.04819757999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.30748094</v>
+        <v>101.1187632</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>100.50823568</v>
+        <v>100.18314411</v>
       </c>
       <c r="E57" t="n">
-        <v>101.32701984</v>
+        <v>99.38460335000001</v>
       </c>
       <c r="F57" t="n">
-        <v>102.35064769</v>
+        <v>98.12112181000001</v>
       </c>
       <c r="G57" t="n">
-        <v>101.09519293</v>
+        <v>101.35622699</v>
       </c>
       <c r="H57" t="n">
-        <v>103.04784123</v>
+        <v>102.89569815</v>
       </c>
       <c r="I57" t="n">
-        <v>104.7673938</v>
+        <v>114.35777587</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>98.62794828</v>
+        <v>107.50634635</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>100.54897862</v>
+        <v>100.29143278</v>
       </c>
       <c r="E58" t="n">
-        <v>100.78598758</v>
+        <v>103.20326017</v>
       </c>
       <c r="F58" t="n">
-        <v>96.05860169</v>
+        <v>99.26483584</v>
       </c>
       <c r="G58" t="n">
-        <v>99.15389964000001</v>
+        <v>104.21066042</v>
       </c>
       <c r="H58" t="n">
-        <v>102.81854501</v>
+        <v>105.15980199</v>
       </c>
       <c r="I58" t="n">
-        <v>87.90257823</v>
+        <v>125.56543448</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.56320291</v>
+        <v>100.82816814</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>100.18956618</v>
+        <v>100.09233342</v>
       </c>
       <c r="E59" t="n">
-        <v>100.36677941</v>
+        <v>98.54271747999999</v>
       </c>
       <c r="F59" t="n">
-        <v>99.51992749</v>
+        <v>91.78155022</v>
       </c>
       <c r="G59" t="n">
-        <v>100.36861011</v>
+        <v>99.65217112000001</v>
       </c>
       <c r="H59" t="n">
-        <v>98.75572965000001</v>
+        <v>99.59569431</v>
       </c>
       <c r="I59" t="n">
-        <v>103.73630182</v>
+        <v>99.69654930999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>102.22240601</v>
+        <v>101.42327149</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>100.38423524</v>
+        <v>100.2684397</v>
       </c>
       <c r="E60" t="n">
-        <v>102.30073963</v>
+        <v>97.55499441000001</v>
       </c>
       <c r="F60" t="n">
-        <v>102.93774221</v>
+        <v>98.3341556</v>
       </c>
       <c r="G60" t="n">
-        <v>102.44016255</v>
+        <v>100.33235396</v>
       </c>
       <c r="H60" t="n">
-        <v>100.62146707</v>
+        <v>99.23772812999999</v>
       </c>
       <c r="I60" t="n">
-        <v>117.40588271</v>
+        <v>106.29079891</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>107.50634635</v>
+        <v>100.63423334</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>100.29143278</v>
+        <v>100.16766275</v>
       </c>
       <c r="E61" t="n">
-        <v>103.20326017</v>
+        <v>97.87793274000001</v>
       </c>
       <c r="F61" t="n">
-        <v>99.26483584</v>
+        <v>98.63438499</v>
       </c>
       <c r="G61" t="n">
-        <v>104.21066042</v>
+        <v>99.09215958</v>
       </c>
       <c r="H61" t="n">
-        <v>105.15980199</v>
+        <v>100.18012471</v>
       </c>
       <c r="I61" t="n">
-        <v>125.56543448</v>
+        <v>93.80095559999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.82816814</v>
+        <v>100.20954544</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>100.09233342</v>
+        <v>100.16293701</v>
       </c>
       <c r="E62" t="n">
-        <v>98.54271747999999</v>
+        <v>98.86643628</v>
       </c>
       <c r="F62" t="n">
-        <v>91.78155022</v>
+        <v>100.37252361</v>
       </c>
       <c r="G62" t="n">
-        <v>99.65217112000001</v>
+        <v>99.27358912</v>
       </c>
       <c r="H62" t="n">
-        <v>99.59569431</v>
+        <v>99.85440733</v>
       </c>
       <c r="I62" t="n">
-        <v>99.69654930999999</v>
+        <v>93.14442022999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>101.42327149</v>
+        <v>99.16195933</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>100.2684397</v>
+        <v>100.09593744</v>
       </c>
       <c r="E63" t="n">
-        <v>97.55499441000001</v>
+        <v>99.55155086000001</v>
       </c>
       <c r="F63" t="n">
-        <v>98.3341556</v>
+        <v>111.39349325</v>
       </c>
       <c r="G63" t="n">
-        <v>100.33235396</v>
+        <v>98.28811295</v>
       </c>
       <c r="H63" t="n">
-        <v>99.23772812999999</v>
+        <v>93.26035552</v>
       </c>
       <c r="I63" t="n">
-        <v>106.29079891</v>
+        <v>84.87197838</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.63423334</v>
+        <v>99.24621541</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.16766275</v>
+        <v>100.1293414</v>
       </c>
       <c r="E64" t="n">
-        <v>97.87793274000001</v>
+        <v>100.08435121</v>
       </c>
       <c r="F64" t="n">
-        <v>98.63438499</v>
+        <v>97.41971511</v>
       </c>
       <c r="G64" t="n">
-        <v>99.09215958</v>
+        <v>99.91971321</v>
       </c>
       <c r="H64" t="n">
-        <v>100.18012471</v>
+        <v>97.61681579</v>
       </c>
       <c r="I64" t="n">
-        <v>93.80095559999999</v>
+        <v>100.50893955</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.20954544</v>
+        <v>98.21221677</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>100.16293701</v>
+        <v>100.62290424</v>
       </c>
       <c r="E65" t="n">
-        <v>98.86643628</v>
+        <v>100.89280341</v>
       </c>
       <c r="F65" t="n">
-        <v>100.37252361</v>
+        <v>108.32554113</v>
       </c>
       <c r="G65" t="n">
-        <v>99.27358912</v>
+        <v>101.4506122</v>
       </c>
       <c r="H65" t="n">
-        <v>99.85440733</v>
+        <v>96.3862266</v>
       </c>
       <c r="I65" t="n">
-        <v>93.14442022999999</v>
+        <v>114.4715038</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.16195933</v>
+        <v>98.20283444</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>100.09593744</v>
+        <v>101.01361198</v>
       </c>
       <c r="E66" t="n">
-        <v>99.55155086000001</v>
+        <v>101.85727507</v>
       </c>
       <c r="F66" t="n">
-        <v>111.39349325</v>
+        <v>105.93376312</v>
       </c>
       <c r="G66" t="n">
-        <v>98.28811295</v>
+        <v>100.12624921</v>
       </c>
       <c r="H66" t="n">
-        <v>93.26035552</v>
+        <v>100.78267105</v>
       </c>
       <c r="I66" t="n">
-        <v>84.87197838</v>
+        <v>94.01221624</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99.24621541</v>
+        <v>98.62794828</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>100.1293414</v>
+        <v>100.54897862</v>
       </c>
       <c r="E67" t="n">
-        <v>100.08435121</v>
+        <v>100.78598758</v>
       </c>
       <c r="F67" t="n">
-        <v>97.41971511</v>
+        <v>96.05860169</v>
       </c>
       <c r="G67" t="n">
-        <v>99.91971321</v>
+        <v>99.15389964000001</v>
       </c>
       <c r="H67" t="n">
-        <v>97.61681579</v>
+        <v>102.81854501</v>
       </c>
       <c r="I67" t="n">
-        <v>100.50893955</v>
+        <v>87.90257823</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98.21221677</v>
+        <v>99.56320291</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>100.62290424</v>
+        <v>100.18956618</v>
       </c>
       <c r="E68" t="n">
-        <v>100.89280341</v>
+        <v>100.36677941</v>
       </c>
       <c r="F68" t="n">
-        <v>108.32554113</v>
+        <v>99.51992749</v>
       </c>
       <c r="G68" t="n">
-        <v>101.4506122</v>
+        <v>100.36861011</v>
       </c>
       <c r="H68" t="n">
-        <v>96.3862266</v>
+        <v>98.75572965000001</v>
       </c>
       <c r="I68" t="n">
-        <v>114.4715038</v>
+        <v>103.73630182</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>98.20283444</v>
+        <v>102.22240601</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>101.01361198</v>
+        <v>100.38423524</v>
       </c>
       <c r="E69" t="n">
-        <v>101.85727507</v>
+        <v>102.30073963</v>
       </c>
       <c r="F69" t="n">
-        <v>105.93376312</v>
+        <v>102.93774221</v>
       </c>
       <c r="G69" t="n">
-        <v>100.12624921</v>
+        <v>102.44016255</v>
       </c>
       <c r="H69" t="n">
-        <v>100.78267105</v>
+        <v>100.62146707</v>
       </c>
       <c r="I69" t="n">
-        <v>94.01221624</v>
+        <v>117.40588271</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99.19325112999999</v>
+        <v>103.68487815</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>100.31480702</v>
+        <v>100.77402429</v>
       </c>
       <c r="E70" t="n">
-        <v>100.03038103</v>
+        <v>102.93203229</v>
       </c>
       <c r="F70" t="n">
-        <v>94.11680584</v>
+        <v>101.17195899</v>
       </c>
       <c r="G70" t="n">
-        <v>99.64671846</v>
+        <v>102.68942052</v>
       </c>
       <c r="H70" t="n">
-        <v>99.33632081</v>
+        <v>104.19417238</v>
       </c>
       <c r="I70" t="n">
-        <v>97.41381278</v>
+        <v>112.0838215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.62554784</v>
+        <v>106.03251422</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>100.38577399</v>
+        <v>100.55949161</v>
       </c>
       <c r="E71" t="n">
-        <v>100.06312826</v>
+        <v>102.39516129</v>
       </c>
       <c r="F71" t="n">
-        <v>98.63084057</v>
+        <v>98.86874226</v>
       </c>
       <c r="G71" t="n">
-        <v>99.83100725</v>
+        <v>102.74148802</v>
       </c>
       <c r="H71" t="n">
-        <v>100.7529428</v>
+        <v>111.05970187</v>
       </c>
       <c r="I71" t="n">
-        <v>96.49749869</v>
+        <v>107.15120782</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>101.20598083</v>
+        <v>95.57228483</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>100.30200651</v>
+        <v>100.32303534</v>
       </c>
       <c r="E72" t="n">
-        <v>100.48136006</v>
+        <v>95.47285402999999</v>
       </c>
       <c r="F72" t="n">
-        <v>100.37453413</v>
+        <v>93.71800248</v>
       </c>
       <c r="G72" t="n">
-        <v>100.63249988</v>
+        <v>97.11679355</v>
       </c>
       <c r="H72" t="n">
-        <v>105.44047763</v>
+        <v>100.33758343</v>
       </c>
       <c r="I72" t="n">
-        <v>98.33941007</v>
+        <v>86.47935294</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>103.68487815</v>
+        <v>101.22959454</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>100.77402429</v>
+        <v>100.13585553</v>
       </c>
       <c r="E73" t="n">
-        <v>102.93203229</v>
+        <v>96.74429203</v>
       </c>
       <c r="F73" t="n">
-        <v>101.17195899</v>
+        <v>97.42861411</v>
       </c>
       <c r="G73" t="n">
-        <v>102.68942052</v>
+        <v>100.53471532</v>
       </c>
       <c r="H73" t="n">
-        <v>104.19417238</v>
+        <v>100.29220131</v>
       </c>
       <c r="I73" t="n">
-        <v>112.0838215</v>
+        <v>111.09501752</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>106.03251422</v>
+        <v>100.71885325</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>100.55949161</v>
+        <v>100.12897149</v>
       </c>
       <c r="E74" t="n">
-        <v>102.39516129</v>
+        <v>99.01526490000001</v>
       </c>
       <c r="F74" t="n">
-        <v>98.86874226</v>
+        <v>99.62473224</v>
       </c>
       <c r="G74" t="n">
-        <v>102.74148802</v>
+        <v>98.42125545</v>
       </c>
       <c r="H74" t="n">
-        <v>111.05970187</v>
+        <v>100.72841264</v>
       </c>
       <c r="I74" t="n">
-        <v>107.15120782</v>
+        <v>85.82163346999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>95.57228483</v>
+        <v>100.28864548</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>100.32303534</v>
+        <v>100.1895874</v>
       </c>
       <c r="E75" t="n">
-        <v>95.47285402999999</v>
+        <v>102.33027292</v>
       </c>
       <c r="F75" t="n">
-        <v>93.71800248</v>
+        <v>100.17403318</v>
       </c>
       <c r="G75" t="n">
-        <v>97.11679355</v>
+        <v>99.9634641</v>
       </c>
       <c r="H75" t="n">
-        <v>100.33758343</v>
+        <v>97.60161782</v>
       </c>
       <c r="I75" t="n">
-        <v>86.47935294</v>
+        <v>95.11335357</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>101.22959454</v>
+        <v>99.26903597</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>100.13585553</v>
+        <v>100.12756119</v>
       </c>
       <c r="E76" t="n">
-        <v>96.74429203</v>
+        <v>101.08751058</v>
       </c>
       <c r="F76" t="n">
-        <v>97.42861411</v>
+        <v>98.62048631</v>
       </c>
       <c r="G76" t="n">
-        <v>100.53471532</v>
+        <v>99.95932449999999</v>
       </c>
       <c r="H76" t="n">
-        <v>100.29220131</v>
+        <v>93.5246787</v>
       </c>
       <c r="I76" t="n">
-        <v>111.09501752</v>
+        <v>102.46005347</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.71885325</v>
+        <v>99.30580419</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>100.12897149</v>
+        <v>100.16991971</v>
       </c>
       <c r="E77" t="n">
-        <v>99.01526490000001</v>
+        <v>102.01792657</v>
       </c>
       <c r="F77" t="n">
-        <v>99.62473224</v>
+        <v>106.9936167</v>
       </c>
       <c r="G77" t="n">
-        <v>98.42125545</v>
+        <v>101.09318929</v>
       </c>
       <c r="H77" t="n">
-        <v>100.72841264</v>
+        <v>96.87885993</v>
       </c>
       <c r="I77" t="n">
-        <v>85.82163346999999</v>
+        <v>107.25174256</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.28864548</v>
+        <v>99.74767261</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>100.1895874</v>
+        <v>100.27513519</v>
       </c>
       <c r="E78" t="n">
-        <v>102.33027292</v>
+        <v>101.17967571</v>
       </c>
       <c r="F78" t="n">
-        <v>100.17403318</v>
+        <v>107.08209986</v>
       </c>
       <c r="G78" t="n">
-        <v>99.9634641</v>
+        <v>101.50187262</v>
       </c>
       <c r="H78" t="n">
-        <v>97.60161782</v>
+        <v>105.46794772</v>
       </c>
       <c r="I78" t="n">
-        <v>95.11335357</v>
+        <v>106.63802924</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.26903597</v>
+        <v>99.19325112999999</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.12756119</v>
+        <v>100.31480702</v>
       </c>
       <c r="E79" t="n">
-        <v>101.08751058</v>
+        <v>100.03038103</v>
       </c>
       <c r="F79" t="n">
-        <v>98.62048631</v>
+        <v>94.11680584</v>
       </c>
       <c r="G79" t="n">
-        <v>99.95932449999999</v>
+        <v>99.64671846</v>
       </c>
       <c r="H79" t="n">
-        <v>93.5246787</v>
+        <v>99.33632081</v>
       </c>
       <c r="I79" t="n">
-        <v>102.46005347</v>
+        <v>97.41381278</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.30580419</v>
+        <v>99.62554784</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>100.16991971</v>
+        <v>100.38577399</v>
       </c>
       <c r="E80" t="n">
-        <v>102.01792657</v>
+        <v>100.06312826</v>
       </c>
       <c r="F80" t="n">
-        <v>106.9936167</v>
+        <v>98.63084057</v>
       </c>
       <c r="G80" t="n">
-        <v>101.09318929</v>
+        <v>99.83100725</v>
       </c>
       <c r="H80" t="n">
-        <v>96.87885993</v>
+        <v>100.7529428</v>
       </c>
       <c r="I80" t="n">
-        <v>107.25174256</v>
+        <v>96.49749869</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.74767261</v>
+        <v>101.20598083</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>100.27513519</v>
+        <v>100.30200651</v>
       </c>
       <c r="E81" t="n">
-        <v>101.17967571</v>
+        <v>100.48136006</v>
       </c>
       <c r="F81" t="n">
-        <v>107.08209986</v>
+        <v>100.37453413</v>
       </c>
       <c r="G81" t="n">
-        <v>101.50187262</v>
+        <v>100.63249988</v>
       </c>
       <c r="H81" t="n">
-        <v>105.46794772</v>
+        <v>105.44047763</v>
       </c>
       <c r="I81" t="n">
-        <v>106.63802924</v>
+        <v>98.33941007</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.03125865</v>
+        <v>104.54509483</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>100.41735525</v>
+        <v>100.18251922</v>
       </c>
       <c r="E82" t="n">
-        <v>100.00644187</v>
+        <v>100.07476527</v>
       </c>
       <c r="F82" t="n">
-        <v>97.09263376</v>
+        <v>101.50912973</v>
       </c>
       <c r="G82" t="n">
-        <v>99.798052</v>
+        <v>102.52904508</v>
       </c>
       <c r="H82" t="n">
-        <v>98.11427279</v>
+        <v>111.21259303</v>
       </c>
       <c r="I82" t="n">
-        <v>99.45166162</v>
+        <v>112.06185612</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>98.98956029</v>
+        <v>104.48327301</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>100.14910863</v>
+        <v>100.21176167</v>
       </c>
       <c r="E83" t="n">
-        <v>99.41811733999999</v>
+        <v>99.14329112</v>
       </c>
       <c r="F83" t="n">
-        <v>98.61118372</v>
+        <v>97.01141758999999</v>
       </c>
       <c r="G83" t="n">
-        <v>99.61968512999999</v>
+        <v>101.80309056</v>
       </c>
       <c r="H83" t="n">
-        <v>99.62713629</v>
+        <v>108.04748009</v>
       </c>
       <c r="I83" t="n">
-        <v>98.53183184</v>
+        <v>108.37368247</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>101.04019262</v>
+        <v>98.31159137</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>100.08997105</v>
+        <v>100.21770804</v>
       </c>
       <c r="E84" t="n">
-        <v>99.77442597</v>
+        <v>96.67858827000001</v>
       </c>
       <c r="F84" t="n">
-        <v>98.36831995</v>
+        <v>99.81230479</v>
       </c>
       <c r="G84" t="n">
-        <v>101.19762684</v>
+        <v>98.49719426</v>
       </c>
       <c r="H84" t="n">
-        <v>101.70720432</v>
+        <v>98.30526033</v>
       </c>
       <c r="I84" t="n">
-        <v>111.46026316</v>
+        <v>94.5869586</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>104.54509483</v>
+        <v>99.38348123999999</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>100.18251922</v>
+        <v>100.16930147</v>
       </c>
       <c r="E85" t="n">
-        <v>100.07476527</v>
+        <v>97.7293147</v>
       </c>
       <c r="F85" t="n">
-        <v>101.50912973</v>
+        <v>103.53552435</v>
       </c>
       <c r="G85" t="n">
-        <v>102.52904508</v>
+        <v>98.67919611000001</v>
       </c>
       <c r="H85" t="n">
-        <v>111.21259303</v>
+        <v>101.42004654</v>
       </c>
       <c r="I85" t="n">
-        <v>112.06185612</v>
+        <v>90.37203069</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>104.48327301</v>
+        <v>99.89982344000001</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>100.21176167</v>
+        <v>100.40591618</v>
       </c>
       <c r="E86" t="n">
-        <v>99.14329112</v>
+        <v>102.5949954</v>
       </c>
       <c r="F86" t="n">
-        <v>97.01141758999999</v>
+        <v>109.50999355</v>
       </c>
       <c r="G86" t="n">
-        <v>101.80309056</v>
+        <v>100.11416493</v>
       </c>
       <c r="H86" t="n">
-        <v>108.04748009</v>
+        <v>102.0082962</v>
       </c>
       <c r="I86" t="n">
-        <v>108.37368247</v>
+        <v>91.30292609</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>98.31159137</v>
+        <v>99.25984509</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>100.21770804</v>
+        <v>100.35185863</v>
       </c>
       <c r="E87" t="n">
-        <v>96.67858827000001</v>
+        <v>101.04500448</v>
       </c>
       <c r="F87" t="n">
-        <v>99.81230479</v>
+        <v>96.20406702</v>
       </c>
       <c r="G87" t="n">
-        <v>98.49719426</v>
+        <v>99.55278934</v>
       </c>
       <c r="H87" t="n">
-        <v>98.30526033</v>
+        <v>97.59560252999999</v>
       </c>
       <c r="I87" t="n">
-        <v>94.5869586</v>
+        <v>95.69070828</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.38348123999999</v>
+        <v>99.08116432999999</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>100.16930147</v>
+        <v>100.30024408</v>
       </c>
       <c r="E88" t="n">
-        <v>97.7293147</v>
+        <v>100.2747924</v>
       </c>
       <c r="F88" t="n">
-        <v>103.53552435</v>
+        <v>104.23464588</v>
       </c>
       <c r="G88" t="n">
-        <v>98.67919611000001</v>
+        <v>99.82588469</v>
       </c>
       <c r="H88" t="n">
-        <v>101.42004654</v>
+        <v>93.69511032</v>
       </c>
       <c r="I88" t="n">
-        <v>90.37203069</v>
+        <v>102.25707011</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.89982344000001</v>
+        <v>99.32043508</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>100.40591618</v>
+        <v>100.25701499</v>
       </c>
       <c r="E89" t="n">
-        <v>102.5949954</v>
+        <v>102.06743895</v>
       </c>
       <c r="F89" t="n">
-        <v>109.50999355</v>
+        <v>106.34132624</v>
       </c>
       <c r="G89" t="n">
-        <v>100.11416493</v>
+        <v>100.57903463</v>
       </c>
       <c r="H89" t="n">
-        <v>102.0082962</v>
+        <v>97.71361915999999</v>
       </c>
       <c r="I89" t="n">
-        <v>91.30292609</v>
+        <v>101.69514816</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.25984509</v>
+        <v>99.21129225</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>100.35185863</v>
+        <v>100.34716789</v>
       </c>
       <c r="E90" t="n">
-        <v>101.04500448</v>
+        <v>101.3579488</v>
       </c>
       <c r="F90" t="n">
-        <v>96.20406702</v>
+        <v>101.95363627</v>
       </c>
       <c r="G90" t="n">
-        <v>99.55278934</v>
+        <v>100.83066377</v>
       </c>
       <c r="H90" t="n">
-        <v>97.59560252999999</v>
+        <v>101.61293624</v>
       </c>
       <c r="I90" t="n">
-        <v>95.69070828</v>
+        <v>104.13265487</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.08116432999999</v>
+        <v>99.03125865</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>100.30024408</v>
+        <v>100.41735525</v>
       </c>
       <c r="E91" t="n">
-        <v>100.2747924</v>
+        <v>100.00644187</v>
       </c>
       <c r="F91" t="n">
-        <v>104.23464588</v>
+        <v>97.09263376</v>
       </c>
       <c r="G91" t="n">
-        <v>99.82588469</v>
+        <v>99.798052</v>
       </c>
       <c r="H91" t="n">
-        <v>93.69511032</v>
+        <v>98.11427279</v>
       </c>
       <c r="I91" t="n">
-        <v>102.25707011</v>
+        <v>99.45166162</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.32043508</v>
+        <v>98.98956029</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>100.25701499</v>
+        <v>100.14910863</v>
       </c>
       <c r="E92" t="n">
-        <v>102.06743895</v>
+        <v>99.41811733999999</v>
       </c>
       <c r="F92" t="n">
-        <v>106.34132624</v>
+        <v>98.61118372</v>
       </c>
       <c r="G92" t="n">
-        <v>100.57903463</v>
+        <v>99.61968512999999</v>
       </c>
       <c r="H92" t="n">
-        <v>97.71361915999999</v>
+        <v>99.62713629</v>
       </c>
       <c r="I92" t="n">
-        <v>101.69514816</v>
+        <v>98.53183184</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.21129225</v>
+        <v>101.04019262</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>100.34716789</v>
+        <v>100.08997105</v>
       </c>
       <c r="E93" t="n">
-        <v>101.3579488</v>
+        <v>99.77442597</v>
       </c>
       <c r="F93" t="n">
-        <v>101.95363627</v>
+        <v>98.36831995</v>
       </c>
       <c r="G93" t="n">
-        <v>100.83066377</v>
+        <v>101.19762684</v>
       </c>
       <c r="H93" t="n">
-        <v>101.61293624</v>
+        <v>101.70720432</v>
       </c>
       <c r="I93" t="n">
-        <v>104.13265487</v>
+        <v>111.46026316</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>99.30486802999999</v>
+        <v>102.54290398</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>100.15974993</v>
+        <v>100.11715488</v>
       </c>
       <c r="E94" t="n">
-        <v>99.09371861</v>
+        <v>99.41903277999999</v>
       </c>
       <c r="F94" t="n">
-        <v>93.08386188</v>
+        <v>96.5654505</v>
       </c>
       <c r="G94" t="n">
-        <v>99.02045122</v>
+        <v>100.73216314</v>
       </c>
       <c r="H94" t="n">
-        <v>99.85098734</v>
+        <v>103.80065713</v>
       </c>
       <c r="I94" t="n">
-        <v>94.33058993</v>
+        <v>103.81686442</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>99.29380484000001</v>
+        <v>106.26891574</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>100.1232926</v>
+        <v>100.14876519</v>
       </c>
       <c r="E95" t="n">
-        <v>98.66257924</v>
+        <v>101.29516168</v>
       </c>
       <c r="F95" t="n">
-        <v>98.8931862</v>
+        <v>99.47897184</v>
       </c>
       <c r="G95" t="n">
-        <v>100.0653534</v>
+        <v>103.03300656</v>
       </c>
       <c r="H95" t="n">
-        <v>101.80207326</v>
+        <v>108.73535582</v>
       </c>
       <c r="I95" t="n">
-        <v>103.05243172</v>
+        <v>113.77202253</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>101.46244871</v>
+        <v>97.66808147</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>100.11180525</v>
+        <v>100.09896062</v>
       </c>
       <c r="E96" t="n">
-        <v>99.71210128</v>
+        <v>98.16797083</v>
       </c>
       <c r="F96" t="n">
-        <v>101.20077861</v>
+        <v>94.510953</v>
       </c>
       <c r="G96" t="n">
-        <v>101.57414101</v>
+        <v>98.35996231999999</v>
       </c>
       <c r="H96" t="n">
-        <v>102.07666746</v>
+        <v>100.8777242</v>
       </c>
       <c r="I96" t="n">
-        <v>113.63250439</v>
+        <v>90.91952010999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>102.54290398</v>
+        <v>98.89463884</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>100.11715488</v>
+        <v>100.16115528</v>
       </c>
       <c r="E97" t="n">
-        <v>99.41903277999999</v>
+        <v>99.28574080999999</v>
       </c>
       <c r="F97" t="n">
-        <v>96.5654505</v>
+        <v>94.49234672</v>
       </c>
       <c r="G97" t="n">
-        <v>100.73216314</v>
+        <v>99.05074863</v>
       </c>
       <c r="H97" t="n">
-        <v>103.80065713</v>
+        <v>96.64655568000001</v>
       </c>
       <c r="I97" t="n">
-        <v>103.81686442</v>
+        <v>96.50097830999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>106.26891574</v>
+        <v>99.59953476</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>100.14876519</v>
+        <v>100.13404621</v>
       </c>
       <c r="E98" t="n">
-        <v>101.29516168</v>
+        <v>100.75471971</v>
       </c>
       <c r="F98" t="n">
-        <v>99.47897184</v>
+        <v>98.92776714</v>
       </c>
       <c r="G98" t="n">
-        <v>103.03300656</v>
+        <v>99.04761065</v>
       </c>
       <c r="H98" t="n">
-        <v>108.73535582</v>
+        <v>97.30023227</v>
       </c>
       <c r="I98" t="n">
-        <v>113.77202253</v>
+        <v>90.78512187</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>97.66808147</v>
+        <v>100.40201996</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>100.09896062</v>
+        <v>99.98350005</v>
       </c>
       <c r="E99" t="n">
-        <v>98.16797083</v>
+        <v>101.62507114</v>
       </c>
       <c r="F99" t="n">
-        <v>94.510953</v>
+        <v>98.52639397</v>
       </c>
       <c r="G99" t="n">
-        <v>98.35996231999999</v>
+        <v>99.81257588</v>
       </c>
       <c r="H99" t="n">
-        <v>100.8777242</v>
+        <v>91.64969748</v>
       </c>
       <c r="I99" t="n">
-        <v>90.91952010999999</v>
+        <v>100.10266247</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.89463884</v>
+        <v>99.82978537</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>100.16115528</v>
+        <v>100.16697417</v>
       </c>
       <c r="E100" t="n">
-        <v>99.28574080999999</v>
+        <v>104.01350074</v>
       </c>
       <c r="F100" t="n">
-        <v>94.49234672</v>
+        <v>100.49114945</v>
       </c>
       <c r="G100" t="n">
-        <v>99.05074863</v>
+        <v>100.6595797</v>
       </c>
       <c r="H100" t="n">
-        <v>96.64655568000001</v>
+        <v>94.22029876000001</v>
       </c>
       <c r="I100" t="n">
-        <v>96.50097830999999</v>
+        <v>101.6021657</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>99.59953476</v>
+        <v>99.02237416</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>100.13404621</v>
+        <v>100.08523814</v>
       </c>
       <c r="E101" t="n">
-        <v>100.75471971</v>
+        <v>103.5619703</v>
       </c>
       <c r="F101" t="n">
-        <v>98.92776714</v>
+        <v>110.31229705</v>
       </c>
       <c r="G101" t="n">
-        <v>99.04761065</v>
+        <v>101.49926174</v>
       </c>
       <c r="H101" t="n">
-        <v>97.30023227</v>
+        <v>98.29312607999999</v>
       </c>
       <c r="I101" t="n">
-        <v>90.78512187</v>
+        <v>106.70036952</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.40201996</v>
+        <v>98.67916946</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>99.98350005</v>
+        <v>100.04472659</v>
       </c>
       <c r="E102" t="n">
-        <v>101.62507114</v>
+        <v>100.38396823</v>
       </c>
       <c r="F102" t="n">
-        <v>98.52639397</v>
+        <v>102.97579103</v>
       </c>
       <c r="G102" t="n">
-        <v>99.81257588</v>
+        <v>99.91065616</v>
       </c>
       <c r="H102" t="n">
-        <v>91.64969748</v>
+        <v>98.75411551000001</v>
       </c>
       <c r="I102" t="n">
-        <v>100.10266247</v>
+        <v>99.22724807</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>99.82978537</v>
+        <v>99.30486802999999</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>100.16697417</v>
+        <v>100.15974993</v>
       </c>
       <c r="E103" t="n">
-        <v>104.01350074</v>
+        <v>99.09371861</v>
       </c>
       <c r="F103" t="n">
-        <v>100.49114945</v>
+        <v>93.08386188</v>
       </c>
       <c r="G103" t="n">
-        <v>100.6595797</v>
+        <v>99.02045122</v>
       </c>
       <c r="H103" t="n">
-        <v>94.22029876000001</v>
+        <v>99.85098734</v>
       </c>
       <c r="I103" t="n">
-        <v>101.6021657</v>
+        <v>94.33058993</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.02237416</v>
+        <v>99.29380484000001</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>100.08523814</v>
+        <v>100.1232926</v>
       </c>
       <c r="E104" t="n">
-        <v>103.5619703</v>
+        <v>98.66257924</v>
       </c>
       <c r="F104" t="n">
-        <v>110.31229705</v>
+        <v>98.8931862</v>
       </c>
       <c r="G104" t="n">
-        <v>101.49926174</v>
+        <v>100.0653534</v>
       </c>
       <c r="H104" t="n">
-        <v>98.29312607999999</v>
+        <v>101.80207326</v>
       </c>
       <c r="I104" t="n">
-        <v>106.70036952</v>
+        <v>103.05243172</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>98.67916946</v>
+        <v>101.46244871</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>100.04472659</v>
+        <v>100.11180525</v>
       </c>
       <c r="E105" t="n">
-        <v>100.38396823</v>
+        <v>99.71210128</v>
       </c>
       <c r="F105" t="n">
-        <v>102.97579103</v>
+        <v>101.20077861</v>
       </c>
       <c r="G105" t="n">
-        <v>99.91065616</v>
+        <v>101.57414101</v>
       </c>
       <c r="H105" t="n">
-        <v>98.75411551000001</v>
+        <v>102.07666746</v>
       </c>
       <c r="I105" t="n">
-        <v>99.22724807</v>
+        <v>113.63250439</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98.1991491499999</v>
+        <v>102.60727263</v>
       </c>
       <c r="C106" t="n">
-        <v>98.39712707</v>
+        <v>101.51279259</v>
       </c>
       <c r="D106" t="n">
-        <v>100.105574099999</v>
+        <v>99.94177137</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>96.16442198999989</v>
+        <v>102.99297734</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>98.40479852</v>
+        <v>103.72100044</v>
       </c>
       <c r="I106" t="n">
-        <v>99.1916249199999</v>
+        <v>107.20536264</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>99.33612819</v>
+        <v>106.18715927</v>
       </c>
       <c r="C107" t="n">
-        <v>98.95495036</v>
+        <v>104.61246537</v>
       </c>
       <c r="D107" t="n">
-        <v>100.1586071</v>
+        <v>100.24509861</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>99.30528397</v>
+        <v>100.15758192</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>97.78916845000001</v>
+        <v>106.82880989</v>
       </c>
       <c r="I107" t="n">
-        <v>105.7080074</v>
+        <v>130.07819862</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100.4715452</v>
+        <v>97.34548736000001</v>
       </c>
       <c r="C108" t="n">
-        <v>100.2976454</v>
+        <v>98.71915896</v>
       </c>
       <c r="D108" t="n">
-        <v>100.3263307</v>
+        <v>99.84068993</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>98.94303664</v>
+        <v>92.99838828</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>103.10725</v>
+        <v>98.22044332999999</v>
       </c>
       <c r="I108" t="n">
-        <v>99.86457984</v>
+        <v>94.28905193999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>102.60727263</v>
+        <v>100.48794483</v>
       </c>
       <c r="C109" t="n">
-        <v>101.51279259</v>
+        <v>102.18868183</v>
       </c>
       <c r="D109" t="n">
-        <v>99.94177137</v>
+        <v>100.03061932</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>102.99297734</v>
+        <v>99.20680238</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>103.72100044</v>
+        <v>99.3206783</v>
       </c>
       <c r="I109" t="n">
-        <v>107.20536264</v>
+        <v>86.96345382</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>106.18715927</v>
+        <v>100.06744034</v>
       </c>
       <c r="C110" t="n">
-        <v>104.61246537</v>
+        <v>101.58183025</v>
       </c>
       <c r="D110" t="n">
-        <v>100.24509861</v>
+        <v>100.12296254</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>100.15758192</v>
+        <v>100.0700373</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>106.82880989</v>
+        <v>98.61241281</v>
       </c>
       <c r="I110" t="n">
-        <v>130.07819862</v>
+        <v>78.44284798</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>97.34548736000001</v>
+        <v>100.97481546</v>
       </c>
       <c r="C111" t="n">
-        <v>98.71915896</v>
+        <v>100.83536549</v>
       </c>
       <c r="D111" t="n">
-        <v>99.84068993</v>
+        <v>100.0605417</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>92.99838828</v>
+        <v>98.92938495999999</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>98.22044332999999</v>
+        <v>97.06405361</v>
       </c>
       <c r="I111" t="n">
-        <v>94.28905193999999</v>
+        <v>87.61025434</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>100.48794483</v>
+        <v>100.5289155</v>
       </c>
       <c r="C112" t="n">
-        <v>102.18868183</v>
+        <v>98.80339046</v>
       </c>
       <c r="D112" t="n">
-        <v>100.03061932</v>
+        <v>99.94928984000001</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>99.20680238</v>
+        <v>98.43465199000001</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>99.3206783</v>
+        <v>98.34191475</v>
       </c>
       <c r="I112" t="n">
-        <v>86.96345382</v>
+        <v>104.13531229</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.06744034</v>
+        <v>99.38397083</v>
       </c>
       <c r="C113" t="n">
-        <v>101.58183025</v>
+        <v>99.16654053000001</v>
       </c>
       <c r="D113" t="n">
-        <v>100.12296254</v>
+        <v>100.1004144</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>100.0700373</v>
+        <v>103.39728648</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>98.61241281</v>
+        <v>97.21114102999999</v>
       </c>
       <c r="I113" t="n">
-        <v>78.44284798</v>
+        <v>107.8050055</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>100.97481546</v>
+        <v>99.30388508999989</v>
       </c>
       <c r="C114" t="n">
-        <v>100.83536549</v>
+        <v>99.94373406</v>
       </c>
       <c r="D114" t="n">
-        <v>100.0605417</v>
+        <v>100.013888499999</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>98.92938495999999</v>
+        <v>105.7573316</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>97.06405361</v>
+        <v>105.2212116</v>
       </c>
       <c r="I114" t="n">
-        <v>87.61025434</v>
+        <v>110.566733099999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100.5289155</v>
+        <v>98.1991491499999</v>
       </c>
       <c r="C115" t="n">
-        <v>98.80339046</v>
+        <v>98.39712707</v>
       </c>
       <c r="D115" t="n">
-        <v>99.94928984000001</v>
+        <v>100.105574099999</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>98.43465199000001</v>
+        <v>96.16442198999989</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>98.34191475</v>
+        <v>98.40479852</v>
       </c>
       <c r="I115" t="n">
-        <v>104.13531229</v>
+        <v>99.1916249199999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99.38397083</v>
+        <v>99.33612819</v>
       </c>
       <c r="C116" t="n">
-        <v>99.16654053000001</v>
+        <v>98.95495036</v>
       </c>
       <c r="D116" t="n">
-        <v>100.1004144</v>
+        <v>100.1586071</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>103.39728648</v>
+        <v>99.30528397</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>97.21114102999999</v>
+        <v>97.78916845000001</v>
       </c>
       <c r="I116" t="n">
-        <v>107.8050055</v>
+        <v>105.7080074</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.30388508999989</v>
+        <v>100.4715452</v>
       </c>
       <c r="C117" t="n">
-        <v>99.94373406</v>
+        <v>100.2976454</v>
       </c>
       <c r="D117" t="n">
-        <v>100.013888499999</v>
+        <v>100.3263307</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>105.7573316</v>
+        <v>98.94303664</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>105.2212116</v>
+        <v>103.10725</v>
       </c>
       <c r="I117" t="n">
-        <v>110.566733099999</v>
+        <v>99.86457984</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>99.52419722</v>
+        <v>104.5819248</v>
       </c>
       <c r="C118" t="n">
-        <v>100.3138256</v>
+        <v>102.3533405</v>
       </c>
       <c r="D118" t="n">
-        <v>100.010758</v>
+        <v>100.1771498</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>95.48643601000001</v>
+        <v>98.30144151</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>100.9083698</v>
+        <v>105.4899437</v>
       </c>
       <c r="I118" t="n">
-        <v>100.525643</v>
+        <v>106.1822848</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>98.71421589000001</v>
+        <v>101.91819449</v>
       </c>
       <c r="C119" t="n">
-        <v>99.87264178</v>
+        <v>99.13784638</v>
       </c>
       <c r="D119" t="n">
-        <v>100.0813919</v>
+        <v>100.18898155</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>101.5854799</v>
+        <v>94.09884622</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>102.3954057</v>
+        <v>104.16896204</v>
       </c>
       <c r="I119" t="n">
-        <v>95.27542763</v>
+        <v>94.44411588</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>101.1861081</v>
+        <v>99.85530951</v>
       </c>
       <c r="C120" t="n">
-        <v>100.7861442</v>
+        <v>97.64228292</v>
       </c>
       <c r="D120" t="n">
-        <v>100.1501538</v>
+        <v>100.0568837</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>104.2767215</v>
+        <v>95.99974579000001</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>105.423426</v>
+        <v>98.58532015</v>
       </c>
       <c r="I120" t="n">
-        <v>100.8732289</v>
+        <v>92.09889142</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>104.5819248</v>
+        <v>101.4999744</v>
       </c>
       <c r="C121" t="n">
-        <v>102.3533405</v>
+        <v>98.7942855</v>
       </c>
       <c r="D121" t="n">
-        <v>100.1771498</v>
+        <v>100.1692099</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>98.30144151</v>
+        <v>99.60748983000001</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>105.4899437</v>
+        <v>101.816566</v>
       </c>
       <c r="I121" t="n">
-        <v>106.1822848</v>
+        <v>94.99739815</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>101.91819449</v>
+        <v>101.1332751</v>
       </c>
       <c r="C122" t="n">
-        <v>99.13784638</v>
+        <v>98.44812481</v>
       </c>
       <c r="D122" t="n">
-        <v>100.18898155</v>
+        <v>100.0300699</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>94.09884622</v>
+        <v>96.99731097999999</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>104.16896204</v>
+        <v>104.2243109</v>
       </c>
       <c r="I122" t="n">
-        <v>94.44411588</v>
+        <v>93.85926069</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.85530951</v>
+        <v>99.22927601000001</v>
       </c>
       <c r="C123" t="n">
-        <v>97.64228292</v>
+        <v>98.15908453</v>
       </c>
       <c r="D123" t="n">
-        <v>100.0568837</v>
+        <v>100.1976561</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>95.99974579000001</v>
+        <v>104.6073331</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>98.58532015</v>
+        <v>95.72577755</v>
       </c>
       <c r="I123" t="n">
-        <v>92.09889142</v>
+        <v>99.12908696</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>101.4999744</v>
+        <v>99.70089535</v>
       </c>
       <c r="C124" t="n">
-        <v>98.7942855</v>
+        <v>99.56438544</v>
       </c>
       <c r="D124" t="n">
-        <v>100.1692099</v>
+        <v>99.99441655</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>99.60748983000001</v>
+        <v>103.2563886</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>101.816566</v>
+        <v>90.78948957</v>
       </c>
       <c r="I124" t="n">
-        <v>94.99739815</v>
+        <v>107.2345844</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>101.1332751</v>
+        <v>98.75937602</v>
       </c>
       <c r="C125" t="n">
-        <v>98.44812481</v>
+        <v>100.6117728</v>
       </c>
       <c r="D125" t="n">
-        <v>100.0300699</v>
+        <v>100.0920968</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>96.99731097999999</v>
+        <v>112.7433232</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>104.2243109</v>
+        <v>95.59421367</v>
       </c>
       <c r="I125" t="n">
-        <v>93.85926069</v>
+        <v>108.3175421</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>99.22927601000001</v>
+        <v>98.08798413</v>
       </c>
       <c r="C126" t="n">
-        <v>98.15908453</v>
+        <v>100.8075189</v>
       </c>
       <c r="D126" t="n">
-        <v>100.1976561</v>
+        <v>100.0681713</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>104.6073331</v>
+        <v>105.1357257</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>95.72577755</v>
+        <v>102.2709901</v>
       </c>
       <c r="I126" t="n">
-        <v>99.12908696</v>
+        <v>99.65643489999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99.70089535</v>
+        <v>99.52419722</v>
       </c>
       <c r="C127" t="n">
-        <v>99.56438544</v>
+        <v>100.3138256</v>
       </c>
       <c r="D127" t="n">
-        <v>99.99441655</v>
+        <v>100.010758</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>103.2563886</v>
+        <v>95.48643601000001</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>90.78948957</v>
+        <v>100.9083698</v>
       </c>
       <c r="I127" t="n">
-        <v>107.2345844</v>
+        <v>100.525643</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>98.75937602</v>
+        <v>98.71421589000001</v>
       </c>
       <c r="C128" t="n">
-        <v>100.6117728</v>
+        <v>99.87264178</v>
       </c>
       <c r="D128" t="n">
-        <v>100.0920968</v>
+        <v>100.0813919</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>112.7433232</v>
+        <v>101.5854799</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>95.59421367</v>
+        <v>102.3954057</v>
       </c>
       <c r="I128" t="n">
-        <v>108.3175421</v>
+        <v>95.27542763</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>98.08798413</v>
+        <v>101.1861081</v>
       </c>
       <c r="C129" t="n">
-        <v>100.8075189</v>
+        <v>100.7861442</v>
       </c>
       <c r="D129" t="n">
-        <v>100.0681713</v>
+        <v>100.1501538</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>105.1357257</v>
+        <v>104.2767215</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>102.2709901</v>
+        <v>105.423426</v>
       </c>
       <c r="I129" t="n">
-        <v>99.65643489999999</v>
+        <v>100.8732289</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>99.09970009</v>
+        <v>102.8925595</v>
       </c>
       <c r="C130" t="n">
-        <v>101.09328042</v>
+        <v>100.4941772</v>
       </c>
       <c r="D130" t="n">
-        <v>100.18150841</v>
+        <v>100.1646706</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>96.79097074000001</v>
+        <v>100.7008394</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>102.23134991</v>
+        <v>105.7907484</v>
       </c>
       <c r="I130" t="n">
-        <v>96.31369804000001</v>
+        <v>109.6848561</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.8375722</v>
+        <v>108.1006146</v>
       </c>
       <c r="C131" t="n">
-        <v>100.35386639</v>
+        <v>102.0368483</v>
       </c>
       <c r="D131" t="n">
-        <v>100.06793164</v>
+        <v>100.1289196</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>99.86305443000001</v>
+        <v>100.4303768</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>103.76076978</v>
+        <v>106.0022828</v>
       </c>
       <c r="I131" t="n">
-        <v>87.54851794</v>
+        <v>118.410657</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>101.29116807</v>
+        <v>96.97430337</v>
       </c>
       <c r="C132" t="n">
-        <v>100.97810459</v>
+        <v>94.83145465</v>
       </c>
       <c r="D132" t="n">
-        <v>100.0219338</v>
+        <v>100.0306093</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>98.80326725</v>
+        <v>92.63814252</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>101.91515177</v>
+        <v>97.67464136</v>
       </c>
       <c r="I132" t="n">
-        <v>103.87843563</v>
+        <v>85.21210692</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>102.8925595</v>
+        <v>98.69842446</v>
       </c>
       <c r="C133" t="n">
-        <v>100.4941772</v>
+        <v>96.39463179000001</v>
       </c>
       <c r="D133" t="n">
-        <v>100.1646706</v>
+        <v>99.98658688</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>100.7008394</v>
+        <v>97.35357098</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>105.7907484</v>
+        <v>98.85972562000001</v>
       </c>
       <c r="I133" t="n">
-        <v>109.6848561</v>
+        <v>94.20720922</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>108.1006146</v>
+        <v>98.87554531000001</v>
       </c>
       <c r="C134" t="n">
-        <v>102.0368483</v>
+        <v>97.99717567</v>
       </c>
       <c r="D134" t="n">
-        <v>100.1289196</v>
+        <v>99.90887325999999</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>100.4303768</v>
+        <v>101.4062461</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>106.0022828</v>
+        <v>97.18038638</v>
       </c>
       <c r="I134" t="n">
-        <v>118.410657</v>
+        <v>95.45904456</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>96.97430337</v>
+        <v>99.13126459</v>
       </c>
       <c r="C135" t="n">
-        <v>94.83145465</v>
+        <v>100.49219922</v>
       </c>
       <c r="D135" t="n">
-        <v>100.0306093</v>
+        <v>99.92727373</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>92.63814252</v>
+        <v>100.03576025</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>97.67464136</v>
+        <v>92.87348781</v>
       </c>
       <c r="I135" t="n">
-        <v>85.21210692</v>
+        <v>98.40362051</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>98.69842446</v>
+        <v>99.56641071999999</v>
       </c>
       <c r="C136" t="n">
-        <v>96.39463179000001</v>
+        <v>101.32597211</v>
       </c>
       <c r="D136" t="n">
-        <v>99.98658688</v>
+        <v>99.95002088</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>97.35357098</v>
+        <v>100.34029197</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>98.85972562000001</v>
+        <v>96.3714535</v>
       </c>
       <c r="I136" t="n">
-        <v>94.20720922</v>
+        <v>101.95815002</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>98.87554531000001</v>
+        <v>99.6311994</v>
       </c>
       <c r="C137" t="n">
-        <v>97.99717567</v>
+        <v>103.40350737</v>
       </c>
       <c r="D137" t="n">
-        <v>99.90887325999999</v>
+        <v>100.02308568</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>101.4062461</v>
+        <v>111.55924046</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>97.18038638</v>
+        <v>100.48275004</v>
       </c>
       <c r="I137" t="n">
-        <v>95.45904456</v>
+        <v>108.85459779</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.13126459</v>
+        <v>98.21587323</v>
       </c>
       <c r="C138" t="n">
-        <v>100.49219922</v>
+        <v>102.24327106</v>
       </c>
       <c r="D138" t="n">
-        <v>99.92727373</v>
+        <v>100.16026836</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>100.03576025</v>
+        <v>102.09684291</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>92.87348781</v>
+        <v>106.47333097</v>
       </c>
       <c r="I138" t="n">
-        <v>98.40362051</v>
+        <v>109.79716355</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>99.56641071999999</v>
+        <v>99.09970009</v>
       </c>
       <c r="C139" t="n">
-        <v>101.32597211</v>
+        <v>101.09328042</v>
       </c>
       <c r="D139" t="n">
-        <v>99.95002088</v>
+        <v>100.18150841</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>100.34029197</v>
+        <v>96.79097074000001</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>96.3714535</v>
+        <v>102.23134991</v>
       </c>
       <c r="I139" t="n">
-        <v>101.95815002</v>
+        <v>96.31369804000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.6311994</v>
+        <v>99.8375722</v>
       </c>
       <c r="C140" t="n">
-        <v>103.40350737</v>
+        <v>100.35386639</v>
       </c>
       <c r="D140" t="n">
-        <v>100.02308568</v>
+        <v>100.06793164</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>111.55924046</v>
+        <v>99.86305443000001</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>100.48275004</v>
+        <v>103.76076978</v>
       </c>
       <c r="I140" t="n">
-        <v>108.85459779</v>
+        <v>87.54851794</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>98.21587323</v>
+        <v>101.29116807</v>
       </c>
       <c r="C141" t="n">
-        <v>102.24327106</v>
+        <v>100.97810459</v>
       </c>
       <c r="D141" t="n">
-        <v>100.16026836</v>
+        <v>100.0219338</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>102.09684291</v>
+        <v>98.80326725</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>106.47333097</v>
+        <v>101.91515177</v>
       </c>
       <c r="I141" t="n">
-        <v>109.79716355</v>
+        <v>103.87843563</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>98.85169275</v>
+        <v>102.04950883</v>
       </c>
       <c r="C142" t="n">
-        <v>114.25621323</v>
+        <v>99.92769662000001</v>
       </c>
       <c r="D142" t="n">
-        <v>100.13461805</v>
+        <v>100.09548678</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>98.73606899000001</v>
+        <v>100.23447867</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>94.39679615</v>
+        <v>102.13959253</v>
       </c>
       <c r="I142" t="n">
-        <v>98.32817211</v>
+        <v>109.08848344</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>99.57685972</v>
+        <v>104.08038514</v>
       </c>
       <c r="C143" t="n">
-        <v>104.94283821</v>
+        <v>100.92697761</v>
       </c>
       <c r="D143" t="n">
-        <v>100.16495874</v>
+        <v>100.14116366</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>99.66333568</v>
+        <v>95.75667414999999</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>97.05637495000001</v>
+        <v>105.46659865</v>
       </c>
       <c r="I143" t="n">
-        <v>101.41079422</v>
+        <v>115.94210656</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>100.07694041</v>
+        <v>96.44488823</v>
       </c>
       <c r="C144" t="n">
-        <v>96.2497628</v>
+        <v>99.73897276</v>
       </c>
       <c r="D144" t="n">
-        <v>99.94507053</v>
+        <v>99.99059621000001</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>95.39284653</v>
+        <v>95.23890226</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>100.73895456</v>
+        <v>100.40265632</v>
       </c>
       <c r="I144" t="n">
-        <v>110.8346389</v>
+        <v>97.36403378</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>102.04950883</v>
+        <v>100.50265104</v>
       </c>
       <c r="C145" t="n">
-        <v>99.92769662000001</v>
+        <v>100.71976689</v>
       </c>
       <c r="D145" t="n">
-        <v>100.09548678</v>
+        <v>100.03289724</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>100.23447867</v>
+        <v>102.57490234</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>102.13959253</v>
+        <v>102.30305059</v>
       </c>
       <c r="I145" t="n">
-        <v>109.08848344</v>
+        <v>95.03633229</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>104.08038514</v>
+        <v>99.869264</v>
       </c>
       <c r="C146" t="n">
-        <v>100.92697761</v>
+        <v>99.95184236999999</v>
       </c>
       <c r="D146" t="n">
-        <v>100.14116366</v>
+        <v>99.9779918</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>95.75667414999999</v>
+        <v>106.11520837</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>105.46659865</v>
+        <v>110.10666615</v>
       </c>
       <c r="I146" t="n">
-        <v>115.94210656</v>
+        <v>92.1096021</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>96.44488823</v>
+        <v>98.93966989</v>
       </c>
       <c r="C147" t="n">
-        <v>99.73897276</v>
+        <v>102.25044787</v>
       </c>
       <c r="D147" t="n">
-        <v>99.99059621000001</v>
+        <v>99.98059906</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>95.23890226</v>
+        <v>97.77648958</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>100.40265632</v>
+        <v>104.90388182</v>
       </c>
       <c r="I147" t="n">
-        <v>97.36403378</v>
+        <v>90.47017949000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100.50265104</v>
+        <v>100.34772568</v>
       </c>
       <c r="C148" t="n">
-        <v>100.71976689</v>
+        <v>104.5598927</v>
       </c>
       <c r="D148" t="n">
-        <v>100.03289724</v>
+        <v>99.9805228</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>102.57490234</v>
+        <v>103.92797934</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>102.30305059</v>
+        <v>93.70797906999999</v>
       </c>
       <c r="I148" t="n">
-        <v>95.03633229</v>
+        <v>102.7917024</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>99.869264</v>
+        <v>100.77470227</v>
       </c>
       <c r="C149" t="n">
-        <v>99.95184236999999</v>
+        <v>114.21334122</v>
       </c>
       <c r="D149" t="n">
-        <v>99.9779918</v>
+        <v>100.19143698</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>106.11520837</v>
+        <v>104.80306381</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>110.10666615</v>
+        <v>89.82848713</v>
       </c>
       <c r="I149" t="n">
-        <v>92.1096021</v>
+        <v>102.91760972</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>98.93966989</v>
+        <v>99.66496548000001</v>
       </c>
       <c r="C150" t="n">
-        <v>102.25044787</v>
+        <v>114.55697188</v>
       </c>
       <c r="D150" t="n">
-        <v>99.98059906</v>
+        <v>99.98531106</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>97.77648958</v>
+        <v>106.44702108</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>104.90388182</v>
+        <v>92.51888221</v>
       </c>
       <c r="I150" t="n">
-        <v>90.47017949000001</v>
+        <v>97.29298574000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>100.34772568</v>
+        <v>98.85169275</v>
       </c>
       <c r="C151" t="n">
-        <v>104.5598927</v>
+        <v>114.25621323</v>
       </c>
       <c r="D151" t="n">
-        <v>99.9805228</v>
+        <v>100.13461805</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>103.92797934</v>
+        <v>98.73606899000001</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>93.70797906999999</v>
+        <v>94.39679615</v>
       </c>
       <c r="I151" t="n">
-        <v>102.7917024</v>
+        <v>98.32817211</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>100.77470227</v>
+        <v>99.57685972</v>
       </c>
       <c r="C152" t="n">
-        <v>114.21334122</v>
+        <v>104.94283821</v>
       </c>
       <c r="D152" t="n">
-        <v>100.19143698</v>
+        <v>100.16495874</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>104.80306381</v>
+        <v>99.66333568</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>89.82848713</v>
+        <v>97.05637495000001</v>
       </c>
       <c r="I152" t="n">
-        <v>102.91760972</v>
+        <v>101.41079422</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>99.66496548000001</v>
+        <v>100.07694041</v>
       </c>
       <c r="C153" t="n">
-        <v>114.55697188</v>
+        <v>96.2497628</v>
       </c>
       <c r="D153" t="n">
-        <v>99.98531106</v>
+        <v>99.94507053</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>106.44702108</v>
+        <v>95.39284653</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>92.51888221</v>
+        <v>100.73895456</v>
       </c>
       <c r="I153" t="n">
-        <v>97.29298574000001</v>
+        <v>110.8346389</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>98.8</v>
+        <v>104.74295407</v>
       </c>
       <c r="C154" t="n">
-        <v>95.7</v>
+        <v>106.01116223</v>
       </c>
       <c r="D154" t="n">
-        <v>100.2</v>
+        <v>99.86725002</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>98</v>
+        <v>96.75151558</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>101.7</v>
+        <v>105.5815908</v>
       </c>
       <c r="I154" t="n">
-        <v>97.59999999999999</v>
+        <v>115.56107084</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>98.09999999999999</v>
+        <v>103.06619944</v>
       </c>
       <c r="C155" t="n">
-        <v>95.5</v>
+        <v>107.26503359</v>
       </c>
       <c r="D155" t="n">
-        <v>100</v>
+        <v>100.4733286</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>98.7</v>
+        <v>94.58761336000001</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>100.2</v>
+        <v>104.87439987</v>
       </c>
       <c r="I155" t="n">
-        <v>94.3</v>
+        <v>109.33770208</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>100.8</v>
+        <v>96.34421421</v>
       </c>
       <c r="C156" t="n">
-        <v>103.9</v>
+        <v>94.8162626</v>
       </c>
       <c r="D156" t="n">
-        <v>100</v>
+        <v>99.97790772</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>102.3</v>
+        <v>95.79358585999999</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>103.5</v>
+        <v>99.73817456</v>
       </c>
       <c r="I156" t="n">
-        <v>108.8</v>
+        <v>87.6087739</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>104.74295407</v>
+        <v>100.13375501</v>
       </c>
       <c r="C157" t="n">
-        <v>106.01116223</v>
+        <v>94.71911591</v>
       </c>
       <c r="D157" t="n">
-        <v>99.86725002</v>
+        <v>100.5152742</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>96.75151558</v>
+        <v>98.23714145</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>105.5815908</v>
+        <v>97.75715656</v>
       </c>
       <c r="I157" t="n">
-        <v>115.56107084</v>
+        <v>91.92569353</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>103.06619944</v>
+        <v>101.22414036</v>
       </c>
       <c r="C158" t="n">
-        <v>107.26503359</v>
+        <v>94.57673142</v>
       </c>
       <c r="D158" t="n">
-        <v>100.4733286</v>
+        <v>100.27768078</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>94.58761336000001</v>
+        <v>96.20022892</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>104.87439987</v>
+        <v>99.16755286</v>
       </c>
       <c r="I158" t="n">
-        <v>109.33770208</v>
+        <v>87.53936784</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>96.34421421</v>
+        <v>99.97676907</v>
       </c>
       <c r="C159" t="n">
-        <v>94.8162626</v>
+        <v>101.9996484</v>
       </c>
       <c r="D159" t="n">
-        <v>99.97790772</v>
+        <v>100.09480852</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>95.79358585999999</v>
+        <v>96.43852106999999</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>99.73817456</v>
+        <v>92.15951487</v>
       </c>
       <c r="I159" t="n">
-        <v>87.6087739</v>
+        <v>103.31929591</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>100.13375501</v>
+        <v>100.40439775</v>
       </c>
       <c r="C160" t="n">
-        <v>94.71911591</v>
+        <v>107.00597083</v>
       </c>
       <c r="D160" t="n">
-        <v>100.5152742</v>
+        <v>99.98769989</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>98.23714145</v>
+        <v>102.95440992</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>97.75715656</v>
+        <v>95.71962061000001</v>
       </c>
       <c r="I160" t="n">
-        <v>91.92569353</v>
+        <v>106.05001163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>101.22414036</v>
+        <v>99.52827443</v>
       </c>
       <c r="C161" t="n">
-        <v>94.57673142</v>
+        <v>101.28035558</v>
       </c>
       <c r="D161" t="n">
-        <v>100.27768078</v>
+        <v>100.06330294</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>96.20022892</v>
+        <v>108.9450161</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>99.16755286</v>
+        <v>99.7276454</v>
       </c>
       <c r="I161" t="n">
-        <v>87.53936784</v>
+        <v>106.07267661</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>99.97676907</v>
+        <v>98.92398432</v>
       </c>
       <c r="C162" t="n">
-        <v>101.9996484</v>
+        <v>99.34843995999999</v>
       </c>
       <c r="D162" t="n">
-        <v>100.09480852</v>
+        <v>99.93182662</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>96.43852106999999</v>
+        <v>100.86272959</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>92.15951487</v>
+        <v>107.73270244</v>
       </c>
       <c r="I162" t="n">
-        <v>103.31929591</v>
+        <v>102.43294619</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>100.40439775</v>
+        <v>98.8</v>
       </c>
       <c r="C163" t="n">
-        <v>107.00597083</v>
+        <v>95.7</v>
       </c>
       <c r="D163" t="n">
-        <v>99.98769989</v>
+        <v>100.2</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>102.95440992</v>
+        <v>98</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>95.71962061000001</v>
+        <v>101.7</v>
       </c>
       <c r="I163" t="n">
-        <v>106.05001163</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>99.52827443</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C164" t="n">
-        <v>101.28035558</v>
+        <v>95.5</v>
       </c>
       <c r="D164" t="n">
-        <v>100.06330294</v>
+        <v>100</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>108.9450161</v>
+        <v>98.7</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>99.7276454</v>
+        <v>100.2</v>
       </c>
       <c r="I164" t="n">
-        <v>106.07267661</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>98.92398432</v>
+        <v>100.8</v>
       </c>
       <c r="C165" t="n">
-        <v>99.34843995999999</v>
+        <v>103.9</v>
       </c>
       <c r="D165" t="n">
-        <v>99.93182662</v>
+        <v>100</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>100.86272959</v>
+        <v>102.3</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>107.73270244</v>
+        <v>103.5</v>
       </c>
       <c r="I165" t="n">
-        <v>102.43294619</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>97.7</v>
+        <v>103.6</v>
       </c>
       <c r="C166" t="n">
-        <v>98.7</v>
+        <v>103.5</v>
       </c>
       <c r="D166" t="n">
         <v>100.3</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>98.09999999999999</v>
+        <v>109.1</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>103.2</v>
+        <v>102.2</v>
       </c>
       <c r="I166" t="n">
-        <v>117</v>
+        <v>119.3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>98.40000000000001</v>
+        <v>109</v>
       </c>
       <c r="C167" t="n">
-        <v>104.7</v>
+        <v>99.3</v>
       </c>
       <c r="D167" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>103</v>
+        <v>96.3</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>104.2</v>
+        <v>106</v>
       </c>
       <c r="I167" t="n">
-        <v>106.4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>100.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>100.5</v>
+        <v>93.8</v>
       </c>
       <c r="D168" t="n">
-        <v>100.7</v>
+        <v>100</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>98.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>103.2</v>
+        <v>100.1</v>
       </c>
       <c r="I168" t="n">
-        <v>91.59999999999999</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>103.6</v>
+        <v>102.8</v>
       </c>
       <c r="C169" t="n">
-        <v>103.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>109.1</v>
+        <v>101.5</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>102.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>119.3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>109</v>
+        <v>102.8</v>
       </c>
       <c r="C170" t="n">
-        <v>99.3</v>
+        <v>94.5</v>
       </c>
       <c r="D170" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>96.3</v>
+        <v>102.8</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>106</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I170" t="n">
-        <v>102</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>98.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>93.8</v>
+        <v>92.8</v>
       </c>
       <c r="D171" t="n">
         <v>100</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>96.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>100.1</v>
+        <v>95.5</v>
       </c>
       <c r="I171" t="n">
-        <v>85.3</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>102.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>94.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D172" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>101.5</v>
+        <v>100.8</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>96.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="I172" t="n">
-        <v>91</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>102.8</v>
+        <v>97.5</v>
       </c>
       <c r="C173" t="n">
-        <v>94.5</v>
+        <v>99</v>
       </c>
       <c r="D173" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>102.8</v>
+        <v>107.1</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>97.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I173" t="n">
-        <v>94.7</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>92.8</v>
+        <v>97.8</v>
       </c>
       <c r="D174" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="I174" t="n">
-        <v>97.90000000000001</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>99.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="C175" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="D175" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>100.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>98.2</v>
+        <v>103.2</v>
       </c>
       <c r="I175" t="n">
-        <v>101.3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>97.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C176" t="n">
-        <v>99</v>
+        <v>104.7</v>
       </c>
       <c r="D176" t="n">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>107.1</v>
+        <v>103</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>99.40000000000001</v>
+        <v>104.2</v>
       </c>
       <c r="I176" t="n">
-        <v>108.4</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>97.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="C177" t="n">
-        <v>97.8</v>
+        <v>100.5</v>
       </c>
       <c r="D177" t="n">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>100</v>
+        <v>103.2</v>
       </c>
       <c r="I177" t="n">
-        <v>100.8</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类城市居民消费价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类城市居民消费价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,4961 +478,4546 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>100.12238249</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>102.1</v>
+        <v>100.69121422</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7</v>
+        <v>100.99132496</v>
       </c>
       <c r="F2" t="n">
-        <v>104.8</v>
+        <v>97.37869103</v>
       </c>
       <c r="G2" t="n">
-        <v>103.8</v>
+        <v>101.10855591</v>
       </c>
       <c r="H2" t="n">
-        <v>104</v>
+        <v>101.13306929</v>
       </c>
       <c r="I2" t="n">
-        <v>115.8</v>
+        <v>105.46574098</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.9</v>
+        <v>100.83298912</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>100.5</v>
+        <v>102.52542068</v>
       </c>
       <c r="E3" t="n">
-        <v>102.7</v>
+        <v>102.54704636</v>
       </c>
       <c r="F3" t="n">
-        <v>100.3</v>
+        <v>103.9805833</v>
       </c>
       <c r="G3" t="n">
-        <v>102.1</v>
+        <v>101.89306847</v>
       </c>
       <c r="H3" t="n">
-        <v>109.4</v>
+        <v>106.8987777</v>
       </c>
       <c r="I3" t="n">
-        <v>103.4</v>
+        <v>97.96515304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1</v>
+        <v>101.95561455</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>100.2</v>
+        <v>102.18792143</v>
       </c>
       <c r="E4" t="n">
-        <v>103.1</v>
+        <v>102.02775753</v>
       </c>
       <c r="F4" t="n">
-        <v>102.2</v>
+        <v>101.72792998</v>
       </c>
       <c r="G4" t="n">
-        <v>102.9</v>
+        <v>100.9452644</v>
       </c>
       <c r="H4" t="n">
-        <v>111.2</v>
+        <v>108.69508414</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4</v>
+        <v>90.14387537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.09999999999999</v>
+        <v>103.80956761</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>99.90000000000001</v>
+        <v>101.29712282</v>
       </c>
       <c r="E5" t="n">
-        <v>97.59999999999999</v>
+        <v>100.75794072</v>
       </c>
       <c r="F5" t="n">
-        <v>97</v>
+        <v>101.35233729</v>
       </c>
       <c r="G5" t="n">
-        <v>99.7</v>
+        <v>101.88732361</v>
       </c>
       <c r="H5" t="n">
-        <v>100.6</v>
+        <v>107.29153427</v>
       </c>
       <c r="I5" t="n">
-        <v>104.3</v>
+        <v>104.93775852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.90000000000001</v>
+        <v>108.25691693</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>100.81097544</v>
       </c>
       <c r="E6" t="n">
-        <v>98.8</v>
+        <v>101.28354911</v>
       </c>
       <c r="F6" t="n">
-        <v>99.59999999999999</v>
+        <v>101.45066549</v>
       </c>
       <c r="G6" t="n">
-        <v>99.40000000000001</v>
+        <v>103.3769426</v>
       </c>
       <c r="H6" t="n">
-        <v>96.7</v>
+        <v>113.14831913</v>
       </c>
       <c r="I6" t="n">
-        <v>97.7</v>
+        <v>111.0683341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.53500874</v>
+        <v>96.73840753</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>100.09244146</v>
+        <v>101.05555843</v>
       </c>
       <c r="E7" t="n">
-        <v>106.23137619</v>
+        <v>95.67844248</v>
       </c>
       <c r="F7" t="n">
-        <v>105.76223846</v>
+        <v>96.93255401</v>
       </c>
       <c r="G7" t="n">
-        <v>100.37023977</v>
+        <v>98.46491519</v>
       </c>
       <c r="H7" t="n">
-        <v>98.21300328</v>
+        <v>100.63439036</v>
       </c>
       <c r="I7" t="n">
-        <v>86.67389421999999</v>
+        <v>95.81513346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.3</v>
+        <v>99.57742755</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>100.4</v>
+        <v>101.77048701</v>
       </c>
       <c r="E8" t="n">
-        <v>106.9</v>
+        <v>97.12736544000001</v>
       </c>
       <c r="F8" t="n">
-        <v>102.4</v>
+        <v>98.69166765</v>
       </c>
       <c r="G8" t="n">
-        <v>101.1</v>
+        <v>99.87765836</v>
       </c>
       <c r="H8" t="n">
-        <v>88.5</v>
+        <v>103.45399194</v>
       </c>
       <c r="I8" t="n">
-        <v>95.8</v>
+        <v>99.68521426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.2</v>
+        <v>100.05495365</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>100.9</v>
+        <v>101.37806055</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7</v>
+        <v>99.4776933</v>
       </c>
       <c r="F9" t="n">
-        <v>107.2</v>
+        <v>100.37159652</v>
       </c>
       <c r="G9" t="n">
-        <v>103.1</v>
+        <v>99.51102195</v>
       </c>
       <c r="H9" t="n">
-        <v>99.3</v>
+        <v>104.78910752</v>
       </c>
       <c r="I9" t="n">
-        <v>107.9</v>
+        <v>90.37253359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.8</v>
+        <v>100.73225413</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>100.7</v>
+        <v>100.78354656</v>
       </c>
       <c r="E10" t="n">
-        <v>98.7</v>
+        <v>100.08664243</v>
       </c>
       <c r="F10" t="n">
-        <v>102</v>
+        <v>101.61241037</v>
       </c>
       <c r="G10" t="n">
-        <v>100.3</v>
+        <v>98.33931848</v>
       </c>
       <c r="H10" t="n">
-        <v>105.1</v>
+        <v>94.62292436</v>
       </c>
       <c r="I10" t="n">
-        <v>100.3</v>
+        <v>85.51213099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.3</v>
+        <v>100.07265099</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>100.8</v>
+        <v>100.44384944</v>
       </c>
       <c r="E11" t="n">
-        <v>101.9</v>
+        <v>103.50364797</v>
       </c>
       <c r="F11" t="n">
-        <v>96.59999999999999</v>
+        <v>102.75784985</v>
       </c>
       <c r="G11" t="n">
-        <v>101.4</v>
+        <v>100.80465946</v>
       </c>
       <c r="H11" t="n">
-        <v>104.8</v>
+        <v>93.33687098</v>
       </c>
       <c r="I11" t="n">
-        <v>100.8</v>
+        <v>104.64254511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.5</v>
+        <v>99.26405094</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>101.3</v>
+        <v>100.53546899</v>
       </c>
       <c r="E12" t="n">
-        <v>104.6</v>
+        <v>104.59469958</v>
       </c>
       <c r="F12" t="n">
-        <v>99.09999999999999</v>
+        <v>107.92419819</v>
       </c>
       <c r="G12" t="n">
-        <v>102.6</v>
+        <v>101.80170971</v>
       </c>
       <c r="H12" t="n">
-        <v>105.4</v>
+        <v>97.35634451</v>
       </c>
       <c r="I12" t="n">
-        <v>98.7</v>
+        <v>107.37581804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.7</v>
+        <v>99.87964181</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>100.8</v>
+        <v>100.7010806</v>
       </c>
       <c r="E13" t="n">
-        <v>104.4</v>
+        <v>101.7449668</v>
       </c>
       <c r="F13" t="n">
-        <v>101.3</v>
+        <v>104.25300086</v>
       </c>
       <c r="G13" t="n">
-        <v>103.4</v>
+        <v>101.11862101</v>
       </c>
       <c r="H13" t="n">
-        <v>105.7</v>
+        <v>101.39173219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.7</v>
+        <v>103.21070754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>111.9</v>
+        <v>98.54973079</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>100.5</v>
+        <v>100.46164549</v>
       </c>
       <c r="E14" t="n">
-        <v>106</v>
+        <v>99.60448819</v>
       </c>
       <c r="F14" t="n">
-        <v>103.6</v>
+        <v>96.23843755999999</v>
       </c>
       <c r="G14" t="n">
-        <v>107.4</v>
+        <v>99.89329615</v>
       </c>
       <c r="H14" t="n">
-        <v>108.8</v>
+        <v>106.08175013</v>
       </c>
       <c r="I14" t="n">
-        <v>137.4</v>
+        <v>96.30475826</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.09999999999999</v>
+        <v>99.33715044</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>100.5</v>
+        <v>100.25226139</v>
       </c>
       <c r="E15" t="n">
-        <v>97.90000000000001</v>
+        <v>97.50347931</v>
       </c>
       <c r="F15" t="n">
-        <v>94.90000000000001</v>
+        <v>96.09445525</v>
       </c>
       <c r="G15" t="n">
-        <v>98</v>
+        <v>99.31764978</v>
       </c>
       <c r="H15" t="n">
-        <v>96.8</v>
+        <v>106.95680629</v>
       </c>
       <c r="I15" t="n">
-        <v>87.2</v>
+        <v>94.04819757999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.84041872</v>
+        <v>101.1187632</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100.40356515</v>
+        <v>100.18314411</v>
       </c>
       <c r="E16" t="n">
-        <v>100.39726985</v>
+        <v>99.38460335000001</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59139019</v>
+        <v>98.12112181000001</v>
       </c>
       <c r="G16" t="n">
-        <v>99.91951312</v>
+        <v>101.35622699</v>
       </c>
       <c r="H16" t="n">
-        <v>104.68757484</v>
+        <v>102.89569815</v>
       </c>
       <c r="I16" t="n">
-        <v>90.55036776</v>
+        <v>114.35777587</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.2</v>
+        <v>104.08492989</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>101.1</v>
+        <v>101.21714846</v>
       </c>
       <c r="E17" t="n">
-        <v>99.2</v>
+        <v>101.26447013</v>
       </c>
       <c r="F17" t="n">
-        <v>104</v>
+        <v>102.19160672</v>
       </c>
       <c r="G17" t="n">
-        <v>98.7</v>
+        <v>102.8399599</v>
       </c>
       <c r="H17" t="n">
-        <v>96</v>
+        <v>106.947308</v>
       </c>
       <c r="I17" t="n">
-        <v>84.3</v>
+        <v>114.46987655</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.4</v>
+        <v>106.37462717</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>100.5</v>
+        <v>100.78910437</v>
       </c>
       <c r="E18" t="n">
-        <v>99</v>
+        <v>103.46190337</v>
       </c>
       <c r="F18" t="n">
-        <v>102.4</v>
+        <v>100.84446344</v>
       </c>
       <c r="G18" t="n">
-        <v>99.2</v>
+        <v>103.68187099</v>
       </c>
       <c r="H18" t="n">
-        <v>92.09999999999999</v>
+        <v>108.33498007</v>
       </c>
       <c r="I18" t="n">
-        <v>94</v>
+        <v>115.28697223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.1</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>100.3</v>
+        <v>101.2</v>
       </c>
       <c r="E19" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>99.3</v>
+        <v>93</v>
       </c>
       <c r="G19" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>94.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>104.5</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.5</v>
+        <v>100.9</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="E20" t="n">
-        <v>98.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="F20" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G20" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>101.3</v>
+        <v>104</v>
       </c>
       <c r="I20" t="n">
-        <v>101.3</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="E21" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H21" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="F21" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>101.1</v>
-      </c>
       <c r="I21" t="n">
-        <v>104.7</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="E22" t="n">
-        <v>97.59999999999999</v>
+        <v>106.2</v>
       </c>
       <c r="F22" t="n">
-        <v>95.59999999999999</v>
+        <v>104.4</v>
       </c>
       <c r="G22" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="H22" t="n">
-        <v>104.4</v>
+        <v>86</v>
       </c>
       <c r="I22" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.87774971</v>
+        <v>100.90577061</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>99.91692519999999</v>
+        <v>100.36733771</v>
       </c>
       <c r="E23" t="n">
-        <v>101.23236395</v>
+        <v>104.75824781</v>
       </c>
       <c r="F23" t="n">
-        <v>98.01545827</v>
+        <v>100.63567542</v>
       </c>
       <c r="G23" t="n">
-        <v>100.79092869</v>
+        <v>101.14882963</v>
       </c>
       <c r="H23" t="n">
-        <v>102.685815</v>
+        <v>90.01835364999999</v>
       </c>
       <c r="I23" t="n">
-        <v>106.11010736</v>
+        <v>104.3670023</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>105.67427196</v>
+        <v>99.05769436</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>100.2293053</v>
+        <v>100.52603301</v>
       </c>
       <c r="E24" t="n">
-        <v>102.26566584</v>
+        <v>101.50177492</v>
       </c>
       <c r="F24" t="n">
-        <v>100.5702271</v>
+        <v>104.58145595</v>
       </c>
       <c r="G24" t="n">
-        <v>103.37865174</v>
+        <v>100.54783829</v>
       </c>
       <c r="H24" t="n">
-        <v>102.97705487</v>
+        <v>95.78868239000001</v>
       </c>
       <c r="I24" t="n">
-        <v>122.25668842</v>
+        <v>99.87110271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.5</v>
+        <v>99.30748094</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>100.9</v>
+        <v>100.50823568</v>
       </c>
       <c r="E25" t="n">
-        <v>99.59999999999999</v>
+        <v>101.32701984</v>
       </c>
       <c r="F25" t="n">
-        <v>99.3</v>
+        <v>102.35064769</v>
       </c>
       <c r="G25" t="n">
-        <v>100.9</v>
+        <v>101.09519293</v>
       </c>
       <c r="H25" t="n">
-        <v>104</v>
+        <v>103.04784123</v>
       </c>
       <c r="I25" t="n">
-        <v>104.1</v>
+        <v>104.7673938</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.14148934</v>
+        <v>98.62794828</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>100.42148266</v>
+        <v>100.54897862</v>
       </c>
       <c r="E26" t="n">
-        <v>96.78224233</v>
+        <v>100.78598758</v>
       </c>
       <c r="F26" t="n">
-        <v>102.40212084</v>
+        <v>96.05860169</v>
       </c>
       <c r="G26" t="n">
-        <v>99.17407079</v>
+        <v>99.15389964000001</v>
       </c>
       <c r="H26" t="n">
-        <v>105.50791921</v>
+        <v>102.81854501</v>
       </c>
       <c r="I26" t="n">
-        <v>94.45248201</v>
+        <v>87.90257823</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.92130625</v>
+        <v>99.56320291</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>100.74539804</v>
+        <v>100.18956618</v>
       </c>
       <c r="E27" t="n">
-        <v>97.11343841999999</v>
+        <v>100.36677941</v>
       </c>
       <c r="F27" t="n">
-        <v>101.92967223</v>
+        <v>99.51992749</v>
       </c>
       <c r="G27" t="n">
-        <v>99.46952237000001</v>
+        <v>100.36861011</v>
       </c>
       <c r="H27" t="n">
-        <v>108.53518732</v>
+        <v>98.75572965000001</v>
       </c>
       <c r="I27" t="n">
-        <v>93.09495783</v>
+        <v>103.73630182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.08296497000001</v>
+        <v>102.22240601</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>100.39714321</v>
+        <v>100.38423524</v>
       </c>
       <c r="E28" t="n">
-        <v>101.24243487</v>
+        <v>102.30073963</v>
       </c>
       <c r="F28" t="n">
-        <v>97.6517315</v>
+        <v>102.93774221</v>
       </c>
       <c r="G28" t="n">
-        <v>99.67189996</v>
+        <v>102.44016255</v>
       </c>
       <c r="H28" t="n">
-        <v>98.03950223</v>
+        <v>100.62146707</v>
       </c>
       <c r="I28" t="n">
-        <v>97.32288235</v>
+        <v>117.40588271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.32183796</v>
+        <v>107.50634635</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>100.39590764</v>
+        <v>100.29143278</v>
       </c>
       <c r="E29" t="n">
-        <v>103.28534055</v>
+        <v>103.20326017</v>
       </c>
       <c r="F29" t="n">
-        <v>105.63721214</v>
+        <v>99.26483584</v>
       </c>
       <c r="G29" t="n">
-        <v>101.19884041</v>
+        <v>104.21066042</v>
       </c>
       <c r="H29" t="n">
-        <v>94.7501802</v>
+        <v>105.15980199</v>
       </c>
       <c r="I29" t="n">
-        <v>110.16272881</v>
+        <v>125.56543448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.52027167</v>
+        <v>100.82816814</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>100.58958394</v>
+        <v>100.09233342</v>
       </c>
       <c r="E30" t="n">
-        <v>101.9037699</v>
+        <v>98.54271747999999</v>
       </c>
       <c r="F30" t="n">
-        <v>104.12795493</v>
+        <v>91.78155022</v>
       </c>
       <c r="G30" t="n">
-        <v>100.55616538</v>
+        <v>99.65217112000001</v>
       </c>
       <c r="H30" t="n">
-        <v>96.24279934</v>
+        <v>99.59569431</v>
       </c>
       <c r="I30" t="n">
-        <v>104.49682633</v>
+        <v>99.69654930999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.98069201</v>
+        <v>101.42327149</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>100.54141901</v>
+        <v>100.2684397</v>
       </c>
       <c r="E31" t="n">
-        <v>99.82154608</v>
+        <v>97.55499441000001</v>
       </c>
       <c r="F31" t="n">
-        <v>96.76945139</v>
+        <v>98.3341556</v>
       </c>
       <c r="G31" t="n">
-        <v>99.20906041000001</v>
+        <v>100.33235396</v>
       </c>
       <c r="H31" t="n">
-        <v>96.32089664999999</v>
+        <v>99.23772812999999</v>
       </c>
       <c r="I31" t="n">
-        <v>95.12941502</v>
+        <v>106.29079891</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.14859538</v>
+        <v>100.63423334</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>100.68583982</v>
+        <v>100.16766275</v>
       </c>
       <c r="E32" t="n">
-        <v>99.70413198999999</v>
+        <v>97.87793274000001</v>
       </c>
       <c r="F32" t="n">
-        <v>97.39396368</v>
+        <v>98.63438499</v>
       </c>
       <c r="G32" t="n">
-        <v>100.48266841</v>
+        <v>99.09215958</v>
       </c>
       <c r="H32" t="n">
-        <v>97.61266594</v>
+        <v>100.18012471</v>
       </c>
       <c r="I32" t="n">
-        <v>105.59927099</v>
+        <v>93.80095559999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.97721373</v>
+        <v>100.20954544</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>101.23216337</v>
+        <v>100.16293701</v>
       </c>
       <c r="E33" t="n">
-        <v>101.4442852</v>
+        <v>98.86643628</v>
       </c>
       <c r="F33" t="n">
-        <v>100.60466779</v>
+        <v>100.37252361</v>
       </c>
       <c r="G33" t="n">
-        <v>102.97477099</v>
+        <v>99.27358912</v>
       </c>
       <c r="H33" t="n">
-        <v>102.90928211</v>
+        <v>99.85440733</v>
       </c>
       <c r="I33" t="n">
-        <v>117.07496068</v>
+        <v>93.14442022999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.80956761</v>
+        <v>99.16195933</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>101.29712282</v>
+        <v>100.09593744</v>
       </c>
       <c r="E34" t="n">
-        <v>100.75794072</v>
+        <v>99.55155086000001</v>
       </c>
       <c r="F34" t="n">
-        <v>101.35233729</v>
+        <v>111.39349325</v>
       </c>
       <c r="G34" t="n">
-        <v>101.88732361</v>
+        <v>98.28811295</v>
       </c>
       <c r="H34" t="n">
-        <v>107.29153427</v>
+        <v>93.26035552</v>
       </c>
       <c r="I34" t="n">
-        <v>104.93775852</v>
+        <v>84.87197838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>108.25691693</v>
+        <v>99.24621541</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>100.81097544</v>
+        <v>100.1293414</v>
       </c>
       <c r="E35" t="n">
-        <v>101.28354911</v>
+        <v>100.08435121</v>
       </c>
       <c r="F35" t="n">
-        <v>101.45066549</v>
+        <v>97.41971511</v>
       </c>
       <c r="G35" t="n">
-        <v>103.3769426</v>
+        <v>99.91971321</v>
       </c>
       <c r="H35" t="n">
-        <v>113.14831913</v>
+        <v>97.61681579</v>
       </c>
       <c r="I35" t="n">
-        <v>111.0683341</v>
+        <v>100.50893955</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>96.73840753</v>
+        <v>98.21221677</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>101.05555843</v>
+        <v>100.62290424</v>
       </c>
       <c r="E36" t="n">
-        <v>95.67844248</v>
+        <v>100.89280341</v>
       </c>
       <c r="F36" t="n">
-        <v>96.93255401</v>
+        <v>108.32554113</v>
       </c>
       <c r="G36" t="n">
-        <v>98.46491519</v>
+        <v>101.4506122</v>
       </c>
       <c r="H36" t="n">
-        <v>100.63439036</v>
+        <v>96.3862266</v>
       </c>
       <c r="I36" t="n">
-        <v>95.81513346</v>
+        <v>114.4715038</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.57742755</v>
+        <v>98.20283444</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>101.77048701</v>
+        <v>101.01361198</v>
       </c>
       <c r="E37" t="n">
-        <v>97.12736544000001</v>
+        <v>101.85727507</v>
       </c>
       <c r="F37" t="n">
-        <v>98.69166765</v>
+        <v>105.93376312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.87765836</v>
+        <v>100.12624921</v>
       </c>
       <c r="H37" t="n">
-        <v>103.45399194</v>
+        <v>100.78267105</v>
       </c>
       <c r="I37" t="n">
-        <v>99.68521426</v>
+        <v>94.01221624</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.05495365</v>
+        <v>99.19325112999999</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>101.37806055</v>
+        <v>100.31480702</v>
       </c>
       <c r="E38" t="n">
-        <v>99.4776933</v>
+        <v>100.03038103</v>
       </c>
       <c r="F38" t="n">
-        <v>100.37159652</v>
+        <v>94.11680584</v>
       </c>
       <c r="G38" t="n">
-        <v>99.51102195</v>
+        <v>99.64671846</v>
       </c>
       <c r="H38" t="n">
-        <v>104.78910752</v>
+        <v>99.33632081</v>
       </c>
       <c r="I38" t="n">
-        <v>90.37253359</v>
+        <v>97.41381278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.73225413</v>
+        <v>99.62554784</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>100.78354656</v>
+        <v>100.38577399</v>
       </c>
       <c r="E39" t="n">
-        <v>100.08664243</v>
+        <v>100.06312826</v>
       </c>
       <c r="F39" t="n">
-        <v>101.61241037</v>
+        <v>98.63084057</v>
       </c>
       <c r="G39" t="n">
-        <v>98.33931848</v>
+        <v>99.83100725</v>
       </c>
       <c r="H39" t="n">
-        <v>94.62292436</v>
+        <v>100.7529428</v>
       </c>
       <c r="I39" t="n">
-        <v>85.51213099</v>
+        <v>96.49749869</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.07265099</v>
+        <v>101.20598083</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>100.44384944</v>
+        <v>100.30200651</v>
       </c>
       <c r="E40" t="n">
-        <v>103.50364797</v>
+        <v>100.48136006</v>
       </c>
       <c r="F40" t="n">
-        <v>102.75784985</v>
+        <v>100.37453413</v>
       </c>
       <c r="G40" t="n">
-        <v>100.80465946</v>
+        <v>100.63249988</v>
       </c>
       <c r="H40" t="n">
-        <v>93.33687098</v>
+        <v>105.44047763</v>
       </c>
       <c r="I40" t="n">
-        <v>104.64254511</v>
+        <v>98.33941007</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.26405094</v>
+        <v>103.68487815</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>100.53546899</v>
+        <v>100.77402429</v>
       </c>
       <c r="E41" t="n">
-        <v>104.59469958</v>
+        <v>102.93203229</v>
       </c>
       <c r="F41" t="n">
-        <v>107.92419819</v>
+        <v>101.17195899</v>
       </c>
       <c r="G41" t="n">
-        <v>101.80170971</v>
+        <v>102.68942052</v>
       </c>
       <c r="H41" t="n">
-        <v>97.35634451</v>
+        <v>104.19417238</v>
       </c>
       <c r="I41" t="n">
-        <v>107.37581804</v>
+        <v>112.0838215</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.87964181</v>
+        <v>106.03251422</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>100.7010806</v>
+        <v>100.55949161</v>
       </c>
       <c r="E42" t="n">
-        <v>101.7449668</v>
+        <v>102.39516129</v>
       </c>
       <c r="F42" t="n">
-        <v>104.25300086</v>
+        <v>98.86874226</v>
       </c>
       <c r="G42" t="n">
-        <v>101.11862101</v>
+        <v>102.74148802</v>
       </c>
       <c r="H42" t="n">
-        <v>101.39173219</v>
+        <v>111.05970187</v>
       </c>
       <c r="I42" t="n">
-        <v>103.21070754</v>
+        <v>107.15120782</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.12238249</v>
+        <v>95.57228483</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>100.69121422</v>
+        <v>100.32303534</v>
       </c>
       <c r="E43" t="n">
-        <v>100.99132496</v>
+        <v>95.47285402999999</v>
       </c>
       <c r="F43" t="n">
-        <v>97.37869103</v>
+        <v>93.71800248</v>
       </c>
       <c r="G43" t="n">
-        <v>101.10855591</v>
+        <v>97.11679355</v>
       </c>
       <c r="H43" t="n">
-        <v>101.13306929</v>
+        <v>100.33758343</v>
       </c>
       <c r="I43" t="n">
-        <v>105.46574098</v>
+        <v>86.47935294</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.83298912</v>
+        <v>101.22959454</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>102.52542068</v>
+        <v>100.13585553</v>
       </c>
       <c r="E44" t="n">
-        <v>102.54704636</v>
+        <v>96.74429203</v>
       </c>
       <c r="F44" t="n">
-        <v>103.9805833</v>
+        <v>97.42861411</v>
       </c>
       <c r="G44" t="n">
-        <v>101.89306847</v>
+        <v>100.53471532</v>
       </c>
       <c r="H44" t="n">
-        <v>106.8987777</v>
+        <v>100.29220131</v>
       </c>
       <c r="I44" t="n">
-        <v>97.96515304</v>
+        <v>111.09501752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.95561455</v>
+        <v>100.71885325</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>102.18792143</v>
+        <v>100.12897149</v>
       </c>
       <c r="E45" t="n">
-        <v>102.02775753</v>
+        <v>99.01526490000001</v>
       </c>
       <c r="F45" t="n">
-        <v>101.72792998</v>
+        <v>99.62473224</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9452644</v>
+        <v>98.42125545</v>
       </c>
       <c r="H45" t="n">
-        <v>108.69508414</v>
+        <v>100.72841264</v>
       </c>
       <c r="I45" t="n">
-        <v>90.14387537</v>
+        <v>85.82163346999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.08492989</v>
+        <v>100.28864548</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>101.21714846</v>
+        <v>100.1895874</v>
       </c>
       <c r="E46" t="n">
-        <v>101.26447013</v>
+        <v>102.33027292</v>
       </c>
       <c r="F46" t="n">
-        <v>102.19160672</v>
+        <v>100.17403318</v>
       </c>
       <c r="G46" t="n">
-        <v>102.8399599</v>
+        <v>99.9634641</v>
       </c>
       <c r="H46" t="n">
-        <v>106.947308</v>
+        <v>97.60161782</v>
       </c>
       <c r="I46" t="n">
-        <v>114.46987655</v>
+        <v>95.11335357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>106.37462717</v>
+        <v>99.26903597</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.78910437</v>
+        <v>100.12756119</v>
       </c>
       <c r="E47" t="n">
-        <v>103.46190337</v>
+        <v>101.08751058</v>
       </c>
       <c r="F47" t="n">
-        <v>100.84446344</v>
+        <v>98.62048631</v>
       </c>
       <c r="G47" t="n">
-        <v>103.68187099</v>
+        <v>99.95932449999999</v>
       </c>
       <c r="H47" t="n">
-        <v>108.33498007</v>
+        <v>93.5246787</v>
       </c>
       <c r="I47" t="n">
-        <v>115.28697223</v>
+        <v>102.46005347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.90000000000001</v>
+        <v>99.30580419</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>101.2</v>
+        <v>100.16991971</v>
       </c>
       <c r="E48" t="n">
-        <v>99.09999999999999</v>
+        <v>102.01792657</v>
       </c>
       <c r="F48" t="n">
-        <v>93</v>
+        <v>106.9936167</v>
       </c>
       <c r="G48" t="n">
-        <v>99.09999999999999</v>
+        <v>101.09318929</v>
       </c>
       <c r="H48" t="n">
-        <v>99.40000000000001</v>
+        <v>96.87885993</v>
       </c>
       <c r="I48" t="n">
-        <v>93.8</v>
+        <v>107.25174256</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.9</v>
+        <v>99.74767261</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.7</v>
+        <v>100.27513519</v>
       </c>
       <c r="E49" t="n">
-        <v>100.5</v>
+        <v>101.17967571</v>
       </c>
       <c r="F49" t="n">
-        <v>99</v>
+        <v>107.08209986</v>
       </c>
       <c r="G49" t="n">
-        <v>99.59999999999999</v>
+        <v>101.50187262</v>
       </c>
       <c r="H49" t="n">
-        <v>104</v>
+        <v>105.46794772</v>
       </c>
       <c r="I49" t="n">
-        <v>88.59999999999999</v>
+        <v>106.63802924</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.3</v>
+        <v>99.03125865</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>100.6</v>
+        <v>100.41735525</v>
       </c>
       <c r="E50" t="n">
-        <v>101.6</v>
+        <v>100.00644187</v>
       </c>
       <c r="F50" t="n">
-        <v>104.6</v>
+        <v>97.09263376</v>
       </c>
       <c r="G50" t="n">
-        <v>99.7</v>
+        <v>99.798052</v>
       </c>
       <c r="H50" t="n">
-        <v>97.09999999999999</v>
+        <v>98.11427279</v>
       </c>
       <c r="I50" t="n">
-        <v>90.8</v>
+        <v>99.45166162</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>102</v>
+        <v>98.98956029</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>100.3</v>
+        <v>100.14910863</v>
       </c>
       <c r="E51" t="n">
-        <v>106.2</v>
+        <v>99.41811733999999</v>
       </c>
       <c r="F51" t="n">
-        <v>104.4</v>
+        <v>98.61118372</v>
       </c>
       <c r="G51" t="n">
-        <v>100.8</v>
+        <v>99.61968512999999</v>
       </c>
       <c r="H51" t="n">
-        <v>86</v>
+        <v>99.62713629</v>
       </c>
       <c r="I51" t="n">
-        <v>99.7</v>
+        <v>98.53183184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.90577061</v>
+        <v>101.04019262</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>100.36733771</v>
+        <v>100.08997105</v>
       </c>
       <c r="E52" t="n">
-        <v>104.75824781</v>
+        <v>99.77442597</v>
       </c>
       <c r="F52" t="n">
-        <v>100.63567542</v>
+        <v>98.36831995</v>
       </c>
       <c r="G52" t="n">
-        <v>101.14882963</v>
+        <v>101.19762684</v>
       </c>
       <c r="H52" t="n">
-        <v>90.01835364999999</v>
+        <v>101.70720432</v>
       </c>
       <c r="I52" t="n">
-        <v>104.3670023</v>
+        <v>111.46026316</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>99.05769436</v>
+        <v>104.54509483</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>100.52603301</v>
+        <v>100.18251922</v>
       </c>
       <c r="E53" t="n">
-        <v>101.50177492</v>
+        <v>100.07476527</v>
       </c>
       <c r="F53" t="n">
-        <v>104.58145595</v>
+        <v>101.50912973</v>
       </c>
       <c r="G53" t="n">
-        <v>100.54783829</v>
+        <v>102.52904508</v>
       </c>
       <c r="H53" t="n">
-        <v>95.78868239000001</v>
+        <v>111.21259303</v>
       </c>
       <c r="I53" t="n">
-        <v>99.87110271</v>
+        <v>112.06185612</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.30748094</v>
+        <v>104.48327301</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>100.50823568</v>
+        <v>100.21176167</v>
       </c>
       <c r="E54" t="n">
-        <v>101.32701984</v>
+        <v>99.14329112</v>
       </c>
       <c r="F54" t="n">
-        <v>102.35064769</v>
+        <v>97.01141758999999</v>
       </c>
       <c r="G54" t="n">
-        <v>101.09519293</v>
+        <v>101.80309056</v>
       </c>
       <c r="H54" t="n">
-        <v>103.04784123</v>
+        <v>108.04748009</v>
       </c>
       <c r="I54" t="n">
-        <v>104.7673938</v>
+        <v>108.37368247</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.54973079</v>
+        <v>98.31159137</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>100.46164549</v>
+        <v>100.21770804</v>
       </c>
       <c r="E55" t="n">
-        <v>99.60448819</v>
+        <v>96.67858827000001</v>
       </c>
       <c r="F55" t="n">
-        <v>96.23843755999999</v>
+        <v>99.81230479</v>
       </c>
       <c r="G55" t="n">
-        <v>99.89329615</v>
+        <v>98.49719426</v>
       </c>
       <c r="H55" t="n">
-        <v>106.08175013</v>
+        <v>98.30526033</v>
       </c>
       <c r="I55" t="n">
-        <v>96.30475826</v>
+        <v>94.5869586</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.33715044</v>
+        <v>99.38348123999999</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>100.25226139</v>
+        <v>100.16930147</v>
       </c>
       <c r="E56" t="n">
-        <v>97.50347931</v>
+        <v>97.7293147</v>
       </c>
       <c r="F56" t="n">
-        <v>96.09445525</v>
+        <v>103.53552435</v>
       </c>
       <c r="G56" t="n">
-        <v>99.31764978</v>
+        <v>98.67919611000001</v>
       </c>
       <c r="H56" t="n">
-        <v>106.95680629</v>
+        <v>101.42004654</v>
       </c>
       <c r="I56" t="n">
-        <v>94.04819757999999</v>
+        <v>90.37203069</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>101.1187632</v>
+        <v>99.89982344000001</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>100.18314411</v>
+        <v>100.40591618</v>
       </c>
       <c r="E57" t="n">
-        <v>99.38460335000001</v>
+        <v>102.5949954</v>
       </c>
       <c r="F57" t="n">
-        <v>98.12112181000001</v>
+        <v>109.50999355</v>
       </c>
       <c r="G57" t="n">
-        <v>101.35622699</v>
+        <v>100.11416493</v>
       </c>
       <c r="H57" t="n">
-        <v>102.89569815</v>
+        <v>102.0082962</v>
       </c>
       <c r="I57" t="n">
-        <v>114.35777587</v>
+        <v>91.30292609</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>107.50634635</v>
+        <v>99.25984509</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>100.29143278</v>
+        <v>100.35185863</v>
       </c>
       <c r="E58" t="n">
-        <v>103.20326017</v>
+        <v>101.04500448</v>
       </c>
       <c r="F58" t="n">
-        <v>99.26483584</v>
+        <v>96.20406702</v>
       </c>
       <c r="G58" t="n">
-        <v>104.21066042</v>
+        <v>99.55278934</v>
       </c>
       <c r="H58" t="n">
-        <v>105.15980199</v>
+        <v>97.59560252999999</v>
       </c>
       <c r="I58" t="n">
-        <v>125.56543448</v>
+        <v>95.69070828</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.82816814</v>
+        <v>99.08116432999999</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>100.09233342</v>
+        <v>100.30024408</v>
       </c>
       <c r="E59" t="n">
-        <v>98.54271747999999</v>
+        <v>100.2747924</v>
       </c>
       <c r="F59" t="n">
-        <v>91.78155022</v>
+        <v>104.23464588</v>
       </c>
       <c r="G59" t="n">
-        <v>99.65217112000001</v>
+        <v>99.82588469</v>
       </c>
       <c r="H59" t="n">
-        <v>99.59569431</v>
+        <v>93.69511032</v>
       </c>
       <c r="I59" t="n">
-        <v>99.69654930999999</v>
+        <v>102.25707011</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>101.42327149</v>
+        <v>99.32043508</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>100.2684397</v>
+        <v>100.25701499</v>
       </c>
       <c r="E60" t="n">
-        <v>97.55499441000001</v>
+        <v>102.06743895</v>
       </c>
       <c r="F60" t="n">
-        <v>98.3341556</v>
+        <v>106.34132624</v>
       </c>
       <c r="G60" t="n">
-        <v>100.33235396</v>
+        <v>100.57903463</v>
       </c>
       <c r="H60" t="n">
-        <v>99.23772812999999</v>
+        <v>97.71361915999999</v>
       </c>
       <c r="I60" t="n">
-        <v>106.29079891</v>
+        <v>101.69514816</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.63423334</v>
+        <v>99.21129225</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>100.16766275</v>
+        <v>100.34716789</v>
       </c>
       <c r="E61" t="n">
-        <v>97.87793274000001</v>
+        <v>101.3579488</v>
       </c>
       <c r="F61" t="n">
-        <v>98.63438499</v>
+        <v>101.95363627</v>
       </c>
       <c r="G61" t="n">
-        <v>99.09215958</v>
+        <v>100.83066377</v>
       </c>
       <c r="H61" t="n">
-        <v>100.18012471</v>
+        <v>101.61293624</v>
       </c>
       <c r="I61" t="n">
-        <v>93.80095559999999</v>
+        <v>104.13265487</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.20954544</v>
+        <v>99.30486802999999</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>100.16293701</v>
+        <v>100.15974993</v>
       </c>
       <c r="E62" t="n">
-        <v>98.86643628</v>
+        <v>99.09371861</v>
       </c>
       <c r="F62" t="n">
-        <v>100.37252361</v>
+        <v>93.08386188</v>
       </c>
       <c r="G62" t="n">
-        <v>99.27358912</v>
+        <v>99.02045122</v>
       </c>
       <c r="H62" t="n">
-        <v>99.85440733</v>
+        <v>99.85098734</v>
       </c>
       <c r="I62" t="n">
-        <v>93.14442022999999</v>
+        <v>94.33058993</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.16195933</v>
+        <v>99.29380484000001</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>100.09593744</v>
+        <v>100.1232926</v>
       </c>
       <c r="E63" t="n">
-        <v>99.55155086000001</v>
+        <v>98.66257924</v>
       </c>
       <c r="F63" t="n">
-        <v>111.39349325</v>
+        <v>98.8931862</v>
       </c>
       <c r="G63" t="n">
-        <v>98.28811295</v>
+        <v>100.0653534</v>
       </c>
       <c r="H63" t="n">
-        <v>93.26035552</v>
+        <v>101.80207326</v>
       </c>
       <c r="I63" t="n">
-        <v>84.87197838</v>
+        <v>103.05243172</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.24621541</v>
+        <v>101.46244871</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.1293414</v>
+        <v>100.11180525</v>
       </c>
       <c r="E64" t="n">
-        <v>100.08435121</v>
+        <v>99.71210128</v>
       </c>
       <c r="F64" t="n">
-        <v>97.41971511</v>
+        <v>101.20077861</v>
       </c>
       <c r="G64" t="n">
-        <v>99.91971321</v>
+        <v>101.57414101</v>
       </c>
       <c r="H64" t="n">
-        <v>97.61681579</v>
+        <v>102.07666746</v>
       </c>
       <c r="I64" t="n">
-        <v>100.50893955</v>
+        <v>113.63250439</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>98.21221677</v>
+        <v>102.54290398</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>100.62290424</v>
+        <v>100.11715488</v>
       </c>
       <c r="E65" t="n">
-        <v>100.89280341</v>
+        <v>99.41903277999999</v>
       </c>
       <c r="F65" t="n">
-        <v>108.32554113</v>
+        <v>96.5654505</v>
       </c>
       <c r="G65" t="n">
-        <v>101.4506122</v>
+        <v>100.73216314</v>
       </c>
       <c r="H65" t="n">
-        <v>96.3862266</v>
+        <v>103.80065713</v>
       </c>
       <c r="I65" t="n">
-        <v>114.4715038</v>
+        <v>103.81686442</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>98.20283444</v>
+        <v>106.26891574</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>101.01361198</v>
+        <v>100.14876519</v>
       </c>
       <c r="E66" t="n">
-        <v>101.85727507</v>
+        <v>101.29516168</v>
       </c>
       <c r="F66" t="n">
-        <v>105.93376312</v>
+        <v>99.47897184</v>
       </c>
       <c r="G66" t="n">
-        <v>100.12624921</v>
+        <v>103.03300656</v>
       </c>
       <c r="H66" t="n">
-        <v>100.78267105</v>
+        <v>108.73535582</v>
       </c>
       <c r="I66" t="n">
-        <v>94.01221624</v>
+        <v>113.77202253</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.62794828</v>
+        <v>97.66808147</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>100.54897862</v>
+        <v>100.09896062</v>
       </c>
       <c r="E67" t="n">
-        <v>100.78598758</v>
+        <v>98.16797083</v>
       </c>
       <c r="F67" t="n">
-        <v>96.05860169</v>
+        <v>94.510953</v>
       </c>
       <c r="G67" t="n">
-        <v>99.15389964000001</v>
+        <v>98.35996231999999</v>
       </c>
       <c r="H67" t="n">
-        <v>102.81854501</v>
+        <v>100.8777242</v>
       </c>
       <c r="I67" t="n">
-        <v>87.90257823</v>
+        <v>90.91952010999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99.56320291</v>
+        <v>98.89463884</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>100.18956618</v>
+        <v>100.16115528</v>
       </c>
       <c r="E68" t="n">
-        <v>100.36677941</v>
+        <v>99.28574080999999</v>
       </c>
       <c r="F68" t="n">
-        <v>99.51992749</v>
+        <v>94.49234672</v>
       </c>
       <c r="G68" t="n">
-        <v>100.36861011</v>
+        <v>99.05074863</v>
       </c>
       <c r="H68" t="n">
-        <v>98.75572965000001</v>
+        <v>96.64655568000001</v>
       </c>
       <c r="I68" t="n">
-        <v>103.73630182</v>
+        <v>96.50097830999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>102.22240601</v>
+        <v>99.59953476</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>100.38423524</v>
+        <v>100.13404621</v>
       </c>
       <c r="E69" t="n">
-        <v>102.30073963</v>
+        <v>100.75471971</v>
       </c>
       <c r="F69" t="n">
-        <v>102.93774221</v>
+        <v>98.92776714</v>
       </c>
       <c r="G69" t="n">
-        <v>102.44016255</v>
+        <v>99.04761065</v>
       </c>
       <c r="H69" t="n">
-        <v>100.62146707</v>
+        <v>97.30023227</v>
       </c>
       <c r="I69" t="n">
-        <v>117.40588271</v>
+        <v>90.78512187</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>103.68487815</v>
+        <v>100.40201996</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>100.77402429</v>
+        <v>99.98350005</v>
       </c>
       <c r="E70" t="n">
-        <v>102.93203229</v>
+        <v>101.62507114</v>
       </c>
       <c r="F70" t="n">
-        <v>101.17195899</v>
+        <v>98.52639397</v>
       </c>
       <c r="G70" t="n">
-        <v>102.68942052</v>
+        <v>99.81257588</v>
       </c>
       <c r="H70" t="n">
-        <v>104.19417238</v>
+        <v>91.64969748</v>
       </c>
       <c r="I70" t="n">
-        <v>112.0838215</v>
+        <v>100.10266247</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>106.03251422</v>
+        <v>99.82978537</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>100.55949161</v>
+        <v>100.16697417</v>
       </c>
       <c r="E71" t="n">
-        <v>102.39516129</v>
+        <v>104.01350074</v>
       </c>
       <c r="F71" t="n">
-        <v>98.86874226</v>
+        <v>100.49114945</v>
       </c>
       <c r="G71" t="n">
-        <v>102.74148802</v>
+        <v>100.6595797</v>
       </c>
       <c r="H71" t="n">
-        <v>111.05970187</v>
+        <v>94.22029876000001</v>
       </c>
       <c r="I71" t="n">
-        <v>107.15120782</v>
+        <v>101.6021657</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>95.57228483</v>
+        <v>99.02237416</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>100.32303534</v>
+        <v>100.08523814</v>
       </c>
       <c r="E72" t="n">
-        <v>95.47285402999999</v>
+        <v>103.5619703</v>
       </c>
       <c r="F72" t="n">
-        <v>93.71800248</v>
+        <v>110.31229705</v>
       </c>
       <c r="G72" t="n">
-        <v>97.11679355</v>
+        <v>101.49926174</v>
       </c>
       <c r="H72" t="n">
-        <v>100.33758343</v>
+        <v>98.29312607999999</v>
       </c>
       <c r="I72" t="n">
-        <v>86.47935294</v>
+        <v>106.70036952</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>101.22959454</v>
+        <v>98.67916946</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>100.13585553</v>
+        <v>100.04472659</v>
       </c>
       <c r="E73" t="n">
-        <v>96.74429203</v>
+        <v>100.38396823</v>
       </c>
       <c r="F73" t="n">
-        <v>97.42861411</v>
+        <v>102.97579103</v>
       </c>
       <c r="G73" t="n">
-        <v>100.53471532</v>
+        <v>99.91065616</v>
       </c>
       <c r="H73" t="n">
-        <v>100.29220131</v>
+        <v>98.75411551000001</v>
       </c>
       <c r="I73" t="n">
-        <v>111.09501752</v>
+        <v>99.22724807</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.71885325</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>98.1991491499999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98.39712707</v>
+      </c>
       <c r="D74" t="n">
-        <v>100.12897149</v>
-      </c>
-      <c r="E74" t="n">
-        <v>99.01526490000001</v>
-      </c>
+        <v>100.105574099999</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>99.62473224</v>
-      </c>
-      <c r="G74" t="n">
-        <v>98.42125545</v>
-      </c>
+        <v>96.16442198999989</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>100.72841264</v>
+        <v>98.40479852</v>
       </c>
       <c r="I74" t="n">
-        <v>85.82163346999999</v>
+        <v>99.1916249199999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.28864548</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>99.33612819</v>
+      </c>
+      <c r="C75" t="n">
+        <v>98.95495036</v>
+      </c>
       <c r="D75" t="n">
-        <v>100.1895874</v>
-      </c>
-      <c r="E75" t="n">
-        <v>102.33027292</v>
-      </c>
+        <v>100.1586071</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>100.17403318</v>
-      </c>
-      <c r="G75" t="n">
-        <v>99.9634641</v>
-      </c>
+        <v>99.30528397</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>97.60161782</v>
+        <v>97.78916845000001</v>
       </c>
       <c r="I75" t="n">
-        <v>95.11335357</v>
+        <v>105.7080074</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>99.26903597</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>100.4715452</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100.2976454</v>
+      </c>
       <c r="D76" t="n">
-        <v>100.12756119</v>
-      </c>
-      <c r="E76" t="n">
-        <v>101.08751058</v>
-      </c>
+        <v>100.3263307</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>98.62048631</v>
-      </c>
-      <c r="G76" t="n">
-        <v>99.95932449999999</v>
-      </c>
+        <v>98.94303664</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>93.5246787</v>
+        <v>103.10725</v>
       </c>
       <c r="I76" t="n">
-        <v>102.46005347</v>
+        <v>99.86457984</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.30580419</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
+        <v>102.60727263</v>
+      </c>
+      <c r="C77" t="n">
+        <v>101.51279259</v>
+      </c>
       <c r="D77" t="n">
-        <v>100.16991971</v>
-      </c>
-      <c r="E77" t="n">
-        <v>102.01792657</v>
-      </c>
+        <v>99.94177137</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>106.9936167</v>
-      </c>
-      <c r="G77" t="n">
-        <v>101.09318929</v>
-      </c>
+        <v>102.99297734</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>96.87885993</v>
+        <v>103.72100044</v>
       </c>
       <c r="I77" t="n">
-        <v>107.25174256</v>
+        <v>107.20536264</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>99.74767261</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>106.18715927</v>
+      </c>
+      <c r="C78" t="n">
+        <v>104.61246537</v>
+      </c>
       <c r="D78" t="n">
-        <v>100.27513519</v>
-      </c>
-      <c r="E78" t="n">
-        <v>101.17967571</v>
-      </c>
+        <v>100.24509861</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>107.08209986</v>
-      </c>
-      <c r="G78" t="n">
-        <v>101.50187262</v>
-      </c>
+        <v>100.15758192</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>105.46794772</v>
+        <v>106.82880989</v>
       </c>
       <c r="I78" t="n">
-        <v>106.63802924</v>
+        <v>130.07819862</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.19325112999999</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>97.34548736000001</v>
+      </c>
+      <c r="C79" t="n">
+        <v>98.71915896</v>
+      </c>
       <c r="D79" t="n">
-        <v>100.31480702</v>
-      </c>
-      <c r="E79" t="n">
-        <v>100.03038103</v>
-      </c>
+        <v>99.84068993</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>94.11680584</v>
-      </c>
-      <c r="G79" t="n">
-        <v>99.64671846</v>
-      </c>
+        <v>92.99838828</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>99.33632081</v>
+        <v>98.22044332999999</v>
       </c>
       <c r="I79" t="n">
-        <v>97.41381278</v>
+        <v>94.28905193999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.62554784</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>100.48794483</v>
+      </c>
+      <c r="C80" t="n">
+        <v>102.18868183</v>
+      </c>
       <c r="D80" t="n">
-        <v>100.38577399</v>
-      </c>
-      <c r="E80" t="n">
-        <v>100.06312826</v>
-      </c>
+        <v>100.03061932</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>98.63084057</v>
-      </c>
-      <c r="G80" t="n">
-        <v>99.83100725</v>
-      </c>
+        <v>99.20680238</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>100.7529428</v>
+        <v>99.3206783</v>
       </c>
       <c r="I80" t="n">
-        <v>96.49749869</v>
+        <v>86.96345382</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>101.20598083</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>100.06744034</v>
+      </c>
+      <c r="C81" t="n">
+        <v>101.58183025</v>
+      </c>
       <c r="D81" t="n">
-        <v>100.30200651</v>
-      </c>
-      <c r="E81" t="n">
-        <v>100.48136006</v>
-      </c>
+        <v>100.12296254</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>100.37453413</v>
-      </c>
-      <c r="G81" t="n">
-        <v>100.63249988</v>
-      </c>
+        <v>100.0700373</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>105.44047763</v>
+        <v>98.61241281</v>
       </c>
       <c r="I81" t="n">
-        <v>98.33941007</v>
+        <v>78.44284798</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>104.54509483</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
+        <v>100.97481546</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100.83536549</v>
+      </c>
       <c r="D82" t="n">
-        <v>100.18251922</v>
-      </c>
-      <c r="E82" t="n">
-        <v>100.07476527</v>
-      </c>
+        <v>100.0605417</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>101.50912973</v>
-      </c>
-      <c r="G82" t="n">
-        <v>102.52904508</v>
-      </c>
+        <v>98.92938495999999</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>111.21259303</v>
+        <v>97.06405361</v>
       </c>
       <c r="I82" t="n">
-        <v>112.06185612</v>
+        <v>87.61025434</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>104.48327301</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>100.5289155</v>
+      </c>
+      <c r="C83" t="n">
+        <v>98.80339046</v>
+      </c>
       <c r="D83" t="n">
-        <v>100.21176167</v>
-      </c>
-      <c r="E83" t="n">
-        <v>99.14329112</v>
-      </c>
+        <v>99.94928984000001</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>97.01141758999999</v>
-      </c>
-      <c r="G83" t="n">
-        <v>101.80309056</v>
-      </c>
+        <v>98.43465199000001</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>108.04748009</v>
+        <v>98.34191475</v>
       </c>
       <c r="I83" t="n">
-        <v>108.37368247</v>
+        <v>104.13531229</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>98.31159137</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>99.38397083</v>
+      </c>
+      <c r="C84" t="n">
+        <v>99.16654053000001</v>
+      </c>
       <c r="D84" t="n">
-        <v>100.21770804</v>
-      </c>
-      <c r="E84" t="n">
-        <v>96.67858827000001</v>
-      </c>
+        <v>100.1004144</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>99.81230479</v>
-      </c>
-      <c r="G84" t="n">
-        <v>98.49719426</v>
-      </c>
+        <v>103.39728648</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>98.30526033</v>
+        <v>97.21114102999999</v>
       </c>
       <c r="I84" t="n">
-        <v>94.5869586</v>
+        <v>107.8050055</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>99.38348123999999</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>99.30388508999989</v>
+      </c>
+      <c r="C85" t="n">
+        <v>99.94373406</v>
+      </c>
       <c r="D85" t="n">
-        <v>100.16930147</v>
-      </c>
-      <c r="E85" t="n">
-        <v>97.7293147</v>
-      </c>
+        <v>100.013888499999</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>103.53552435</v>
-      </c>
-      <c r="G85" t="n">
-        <v>98.67919611000001</v>
-      </c>
+        <v>105.7573316</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>101.42004654</v>
+        <v>105.2212116</v>
       </c>
       <c r="I85" t="n">
-        <v>90.37203069</v>
+        <v>110.566733099999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>99.89982344000001</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>99.52419722</v>
+      </c>
+      <c r="C86" t="n">
+        <v>100.3138256</v>
+      </c>
       <c r="D86" t="n">
-        <v>100.40591618</v>
-      </c>
-      <c r="E86" t="n">
-        <v>102.5949954</v>
-      </c>
+        <v>100.010758</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>109.50999355</v>
-      </c>
-      <c r="G86" t="n">
-        <v>100.11416493</v>
-      </c>
+        <v>95.48643601000001</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>102.0082962</v>
+        <v>100.9083698</v>
       </c>
       <c r="I86" t="n">
-        <v>91.30292609</v>
+        <v>100.525643</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.25984509</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>98.71421589000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.87264178</v>
+      </c>
       <c r="D87" t="n">
-        <v>100.35185863</v>
-      </c>
-      <c r="E87" t="n">
-        <v>101.04500448</v>
-      </c>
+        <v>100.0813919</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>96.20406702</v>
-      </c>
-      <c r="G87" t="n">
-        <v>99.55278934</v>
-      </c>
+        <v>101.5854799</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>97.59560252999999</v>
+        <v>102.3954057</v>
       </c>
       <c r="I87" t="n">
-        <v>95.69070828</v>
+        <v>95.27542763</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.08116432999999</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
+        <v>101.1861081</v>
+      </c>
+      <c r="C88" t="n">
+        <v>100.7861442</v>
+      </c>
       <c r="D88" t="n">
-        <v>100.30024408</v>
-      </c>
-      <c r="E88" t="n">
-        <v>100.2747924</v>
-      </c>
+        <v>100.1501538</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>104.23464588</v>
-      </c>
-      <c r="G88" t="n">
-        <v>99.82588469</v>
-      </c>
+        <v>104.2767215</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>93.69511032</v>
+        <v>105.423426</v>
       </c>
       <c r="I88" t="n">
-        <v>102.25707011</v>
+        <v>100.8732289</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.32043508</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
+        <v>104.5819248</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.3533405</v>
+      </c>
       <c r="D89" t="n">
-        <v>100.25701499</v>
-      </c>
-      <c r="E89" t="n">
-        <v>102.06743895</v>
-      </c>
+        <v>100.1771498</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>106.34132624</v>
-      </c>
-      <c r="G89" t="n">
-        <v>100.57903463</v>
-      </c>
+        <v>98.30144151</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>97.71361915999999</v>
+        <v>105.4899437</v>
       </c>
       <c r="I89" t="n">
-        <v>101.69514816</v>
+        <v>106.1822848</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.21129225</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>101.91819449</v>
+      </c>
+      <c r="C90" t="n">
+        <v>99.13784638</v>
+      </c>
       <c r="D90" t="n">
-        <v>100.34716789</v>
-      </c>
-      <c r="E90" t="n">
-        <v>101.3579488</v>
-      </c>
+        <v>100.18898155</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>101.95363627</v>
-      </c>
-      <c r="G90" t="n">
-        <v>100.83066377</v>
-      </c>
+        <v>94.09884622</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>101.61293624</v>
+        <v>104.16896204</v>
       </c>
       <c r="I90" t="n">
-        <v>104.13265487</v>
+        <v>94.44411588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.03125865</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>99.85530951</v>
+      </c>
+      <c r="C91" t="n">
+        <v>97.64228292</v>
+      </c>
       <c r="D91" t="n">
-        <v>100.41735525</v>
-      </c>
-      <c r="E91" t="n">
-        <v>100.00644187</v>
-      </c>
+        <v>100.0568837</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>97.09263376</v>
-      </c>
-      <c r="G91" t="n">
-        <v>99.798052</v>
-      </c>
+        <v>95.99974579000001</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>98.11427279</v>
+        <v>98.58532015</v>
       </c>
       <c r="I91" t="n">
-        <v>99.45166162</v>
+        <v>92.09889142</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>98.98956029</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>101.4999744</v>
+      </c>
+      <c r="C92" t="n">
+        <v>98.7942855</v>
+      </c>
       <c r="D92" t="n">
-        <v>100.14910863</v>
-      </c>
-      <c r="E92" t="n">
-        <v>99.41811733999999</v>
-      </c>
+        <v>100.1692099</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>98.61118372</v>
-      </c>
-      <c r="G92" t="n">
-        <v>99.61968512999999</v>
-      </c>
+        <v>99.60748983000001</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>99.62713629</v>
+        <v>101.816566</v>
       </c>
       <c r="I92" t="n">
-        <v>98.53183184</v>
+        <v>94.99739815</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>101.04019262</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>101.1332751</v>
+      </c>
+      <c r="C93" t="n">
+        <v>98.44812481</v>
+      </c>
       <c r="D93" t="n">
-        <v>100.08997105</v>
-      </c>
-      <c r="E93" t="n">
-        <v>99.77442597</v>
-      </c>
+        <v>100.0300699</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>98.36831995</v>
-      </c>
-      <c r="G93" t="n">
-        <v>101.19762684</v>
-      </c>
+        <v>96.99731097999999</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>101.70720432</v>
+        <v>104.2243109</v>
       </c>
       <c r="I93" t="n">
-        <v>111.46026316</v>
+        <v>93.85926069</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>102.54290398</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
+        <v>99.22927601000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>98.15908453</v>
+      </c>
       <c r="D94" t="n">
-        <v>100.11715488</v>
-      </c>
-      <c r="E94" t="n">
-        <v>99.41903277999999</v>
-      </c>
+        <v>100.1976561</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>96.5654505</v>
-      </c>
-      <c r="G94" t="n">
-        <v>100.73216314</v>
-      </c>
+        <v>104.6073331</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>103.80065713</v>
+        <v>95.72577755</v>
       </c>
       <c r="I94" t="n">
-        <v>103.81686442</v>
+        <v>99.12908696</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>106.26891574</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>99.70089535</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.56438544</v>
+      </c>
       <c r="D95" t="n">
-        <v>100.14876519</v>
-      </c>
-      <c r="E95" t="n">
-        <v>101.29516168</v>
-      </c>
+        <v>99.99441655</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>99.47897184</v>
-      </c>
-      <c r="G95" t="n">
-        <v>103.03300656</v>
-      </c>
+        <v>103.2563886</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>108.73535582</v>
+        <v>90.78948957</v>
       </c>
       <c r="I95" t="n">
-        <v>113.77202253</v>
+        <v>107.2345844</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>97.66808147</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
+        <v>98.75937602</v>
+      </c>
+      <c r="C96" t="n">
+        <v>100.6117728</v>
+      </c>
       <c r="D96" t="n">
-        <v>100.09896062</v>
-      </c>
-      <c r="E96" t="n">
-        <v>98.16797083</v>
-      </c>
+        <v>100.0920968</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>94.510953</v>
-      </c>
-      <c r="G96" t="n">
-        <v>98.35996231999999</v>
-      </c>
+        <v>112.7433232</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>100.8777242</v>
+        <v>95.59421367</v>
       </c>
       <c r="I96" t="n">
-        <v>90.91952010999999</v>
+        <v>108.3175421</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>98.89463884</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
+        <v>98.08798413</v>
+      </c>
+      <c r="C97" t="n">
+        <v>100.8075189</v>
+      </c>
       <c r="D97" t="n">
-        <v>100.16115528</v>
-      </c>
-      <c r="E97" t="n">
-        <v>99.28574080999999</v>
-      </c>
+        <v>100.0681713</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>94.49234672</v>
-      </c>
-      <c r="G97" t="n">
-        <v>99.05074863</v>
-      </c>
+        <v>105.1357257</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>96.64655568000001</v>
+        <v>102.2709901</v>
       </c>
       <c r="I97" t="n">
-        <v>96.50097830999999</v>
+        <v>99.65643489999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>99.59953476</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
+        <v>99.09970009</v>
+      </c>
+      <c r="C98" t="n">
+        <v>101.09328042</v>
+      </c>
       <c r="D98" t="n">
-        <v>100.13404621</v>
-      </c>
-      <c r="E98" t="n">
-        <v>100.75471971</v>
-      </c>
+        <v>100.18150841</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>98.92776714</v>
-      </c>
-      <c r="G98" t="n">
-        <v>99.04761065</v>
-      </c>
+        <v>96.79097074000001</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>97.30023227</v>
+        <v>102.23134991</v>
       </c>
       <c r="I98" t="n">
-        <v>90.78512187</v>
+        <v>96.31369804000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.40201996</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
+        <v>99.8375722</v>
+      </c>
+      <c r="C99" t="n">
+        <v>100.35386639</v>
+      </c>
       <c r="D99" t="n">
-        <v>99.98350005</v>
-      </c>
-      <c r="E99" t="n">
-        <v>101.62507114</v>
-      </c>
+        <v>100.06793164</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>98.52639397</v>
-      </c>
-      <c r="G99" t="n">
-        <v>99.81257588</v>
-      </c>
+        <v>99.86305443000001</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>91.64969748</v>
+        <v>103.76076978</v>
       </c>
       <c r="I99" t="n">
-        <v>100.10266247</v>
+        <v>87.54851794</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>99.82978537</v>
-      </c>
-      <c r="C100" t="inlineStr"/>
+        <v>101.29116807</v>
+      </c>
+      <c r="C100" t="n">
+        <v>100.97810459</v>
+      </c>
       <c r="D100" t="n">
-        <v>100.16697417</v>
-      </c>
-      <c r="E100" t="n">
-        <v>104.01350074</v>
-      </c>
+        <v>100.0219338</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>100.49114945</v>
-      </c>
-      <c r="G100" t="n">
-        <v>100.6595797</v>
-      </c>
+        <v>98.80326725</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>94.22029876000001</v>
+        <v>101.91515177</v>
       </c>
       <c r="I100" t="n">
-        <v>101.6021657</v>
+        <v>103.87843563</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>99.02237416</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>102.8925595</v>
+      </c>
+      <c r="C101" t="n">
+        <v>100.4941772</v>
+      </c>
       <c r="D101" t="n">
-        <v>100.08523814</v>
-      </c>
-      <c r="E101" t="n">
-        <v>103.5619703</v>
-      </c>
+        <v>100.1646706</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>110.31229705</v>
-      </c>
-      <c r="G101" t="n">
-        <v>101.49926174</v>
-      </c>
+        <v>100.7008394</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>98.29312607999999</v>
+        <v>105.7907484</v>
       </c>
       <c r="I101" t="n">
-        <v>106.70036952</v>
+        <v>109.6848561</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>98.67916946</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
+        <v>108.1006146</v>
+      </c>
+      <c r="C102" t="n">
+        <v>102.0368483</v>
+      </c>
       <c r="D102" t="n">
-        <v>100.04472659</v>
-      </c>
-      <c r="E102" t="n">
-        <v>100.38396823</v>
-      </c>
+        <v>100.1289196</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>102.97579103</v>
-      </c>
-      <c r="G102" t="n">
-        <v>99.91065616</v>
-      </c>
+        <v>100.4303768</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>98.75411551000001</v>
+        <v>106.0022828</v>
       </c>
       <c r="I102" t="n">
-        <v>99.22724807</v>
+        <v>118.410657</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>99.30486802999999</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>96.97430337</v>
+      </c>
+      <c r="C103" t="n">
+        <v>94.83145465</v>
+      </c>
       <c r="D103" t="n">
-        <v>100.15974993</v>
-      </c>
-      <c r="E103" t="n">
-        <v>99.09371861</v>
-      </c>
+        <v>100.0306093</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>93.08386188</v>
-      </c>
-      <c r="G103" t="n">
-        <v>99.02045122</v>
-      </c>
+        <v>92.63814252</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>99.85098734</v>
+        <v>97.67464136</v>
       </c>
       <c r="I103" t="n">
-        <v>94.33058993</v>
+        <v>85.21210692</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.29380484000001</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
+        <v>98.69842446</v>
+      </c>
+      <c r="C104" t="n">
+        <v>96.39463179000001</v>
+      </c>
       <c r="D104" t="n">
-        <v>100.1232926</v>
-      </c>
-      <c r="E104" t="n">
-        <v>98.66257924</v>
-      </c>
+        <v>99.98658688</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>98.8931862</v>
-      </c>
-      <c r="G104" t="n">
-        <v>100.0653534</v>
-      </c>
+        <v>97.35357098</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>101.80207326</v>
+        <v>98.85972562000001</v>
       </c>
       <c r="I104" t="n">
-        <v>103.05243172</v>
+        <v>94.20720922</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>101.46244871</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
+        <v>98.87554531000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>97.99717567</v>
+      </c>
       <c r="D105" t="n">
-        <v>100.11180525</v>
-      </c>
-      <c r="E105" t="n">
-        <v>99.71210128</v>
-      </c>
+        <v>99.90887325999999</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>101.20077861</v>
-      </c>
-      <c r="G105" t="n">
-        <v>101.57414101</v>
-      </c>
+        <v>101.4062461</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>102.07666746</v>
+        <v>97.18038638</v>
       </c>
       <c r="I105" t="n">
-        <v>113.63250439</v>
+        <v>95.45904456</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>102.60727263</v>
+        <v>99.13126459</v>
       </c>
       <c r="C106" t="n">
-        <v>101.51279259</v>
+        <v>100.49219922</v>
       </c>
       <c r="D106" t="n">
-        <v>99.94177137</v>
+        <v>99.92727373</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>102.99297734</v>
+        <v>100.03576025</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>103.72100044</v>
+        <v>92.87348781</v>
       </c>
       <c r="I106" t="n">
-        <v>107.20536264</v>
+        <v>98.40362051</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>106.18715927</v>
+        <v>99.56641071999999</v>
       </c>
       <c r="C107" t="n">
-        <v>104.61246537</v>
+        <v>101.32597211</v>
       </c>
       <c r="D107" t="n">
-        <v>100.24509861</v>
+        <v>99.95002088</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>100.15758192</v>
+        <v>100.34029197</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>106.82880989</v>
+        <v>96.3714535</v>
       </c>
       <c r="I107" t="n">
-        <v>130.07819862</v>
+        <v>101.95815002</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>97.34548736000001</v>
+        <v>99.6311994</v>
       </c>
       <c r="C108" t="n">
-        <v>98.71915896</v>
+        <v>103.40350737</v>
       </c>
       <c r="D108" t="n">
-        <v>99.84068993</v>
+        <v>100.02308568</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>92.99838828</v>
+        <v>111.55924046</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>98.22044332999999</v>
+        <v>100.48275004</v>
       </c>
       <c r="I108" t="n">
-        <v>94.28905193999999</v>
+        <v>108.85459779</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.48794483</v>
+        <v>98.21587323</v>
       </c>
       <c r="C109" t="n">
-        <v>102.18868183</v>
+        <v>102.24327106</v>
       </c>
       <c r="D109" t="n">
-        <v>100.03061932</v>
+        <v>100.16026836</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>99.20680238</v>
+        <v>102.09684291</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>99.3206783</v>
+        <v>106.47333097</v>
       </c>
       <c r="I109" t="n">
-        <v>86.96345382</v>
+        <v>109.79716355</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>100.06744034</v>
+        <v>98.85169275</v>
       </c>
       <c r="C110" t="n">
-        <v>101.58183025</v>
+        <v>114.25621323</v>
       </c>
       <c r="D110" t="n">
-        <v>100.12296254</v>
+        <v>100.13461805</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>100.0700373</v>
+        <v>98.73606899000001</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>98.61241281</v>
+        <v>94.39679615</v>
       </c>
       <c r="I110" t="n">
-        <v>78.44284798</v>
+        <v>98.32817211</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.97481546</v>
+        <v>99.57685972</v>
       </c>
       <c r="C111" t="n">
-        <v>100.83536549</v>
+        <v>104.94283821</v>
       </c>
       <c r="D111" t="n">
-        <v>100.0605417</v>
+        <v>100.16495874</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>98.92938495999999</v>
+        <v>99.66333568</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>97.06405361</v>
+        <v>97.05637495000001</v>
       </c>
       <c r="I111" t="n">
-        <v>87.61025434</v>
+        <v>101.41079422</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>100.5289155</v>
+        <v>100.07694041</v>
       </c>
       <c r="C112" t="n">
-        <v>98.80339046</v>
+        <v>96.2497628</v>
       </c>
       <c r="D112" t="n">
-        <v>99.94928984000001</v>
+        <v>99.94507053</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>98.43465199000001</v>
+        <v>95.39284653</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>98.34191475</v>
+        <v>100.73895456</v>
       </c>
       <c r="I112" t="n">
-        <v>104.13531229</v>
+        <v>110.8346389</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>99.38397083</v>
+        <v>102.04950883</v>
       </c>
       <c r="C113" t="n">
-        <v>99.16654053000001</v>
+        <v>99.92769662000001</v>
       </c>
       <c r="D113" t="n">
-        <v>100.1004144</v>
+        <v>100.09548678</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>103.39728648</v>
+        <v>100.23447867</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>97.21114102999999</v>
+        <v>102.13959253</v>
       </c>
       <c r="I113" t="n">
-        <v>107.8050055</v>
+        <v>109.08848344</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.30388508999989</v>
+        <v>104.08038514</v>
       </c>
       <c r="C114" t="n">
-        <v>99.94373406</v>
+        <v>100.92697761</v>
       </c>
       <c r="D114" t="n">
-        <v>100.013888499999</v>
+        <v>100.14116366</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>105.7573316</v>
+        <v>95.75667414999999</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>105.2212116</v>
+        <v>105.46659865</v>
       </c>
       <c r="I114" t="n">
-        <v>110.566733099999</v>
+        <v>115.94210656</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>98.1991491499999</v>
+        <v>96.44488823</v>
       </c>
       <c r="C115" t="n">
-        <v>98.39712707</v>
+        <v>99.73897276</v>
       </c>
       <c r="D115" t="n">
-        <v>100.105574099999</v>
+        <v>99.99059621000001</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>96.16442198999989</v>
+        <v>95.23890226</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>98.40479852</v>
+        <v>100.40265632</v>
       </c>
       <c r="I115" t="n">
-        <v>99.1916249199999</v>
+        <v>97.36403378</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99.33612819</v>
+        <v>100.50265104</v>
       </c>
       <c r="C116" t="n">
-        <v>98.95495036</v>
+        <v>100.71976689</v>
       </c>
       <c r="D116" t="n">
-        <v>100.1586071</v>
+        <v>100.03289724</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>99.30528397</v>
+        <v>102.57490234</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>97.78916845000001</v>
+        <v>102.30305059</v>
       </c>
       <c r="I116" t="n">
-        <v>105.7080074</v>
+        <v>95.03633229</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.4715452</v>
+        <v>99.869264</v>
       </c>
       <c r="C117" t="n">
-        <v>100.2976454</v>
+        <v>99.95184236999999</v>
       </c>
       <c r="D117" t="n">
-        <v>100.3263307</v>
+        <v>99.9779918</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>98.94303664</v>
+        <v>106.11520837</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>103.10725</v>
+        <v>110.10666615</v>
       </c>
       <c r="I117" t="n">
-        <v>99.86457984</v>
+        <v>92.1096021</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>104.5819248</v>
+        <v>98.93966989</v>
       </c>
       <c r="C118" t="n">
-        <v>102.3533405</v>
+        <v>102.25044787</v>
       </c>
       <c r="D118" t="n">
-        <v>100.1771498</v>
+        <v>99.98059906</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>98.30144151</v>
+        <v>97.77648958</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>105.4899437</v>
+        <v>104.90388182</v>
       </c>
       <c r="I118" t="n">
-        <v>106.1822848</v>
+        <v>90.47017949000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>101.91819449</v>
+        <v>100.34772568</v>
       </c>
       <c r="C119" t="n">
-        <v>99.13784638</v>
+        <v>104.5598927</v>
       </c>
       <c r="D119" t="n">
-        <v>100.18898155</v>
+        <v>99.9805228</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>94.09884622</v>
+        <v>103.92797934</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>104.16896204</v>
+        <v>93.70797906999999</v>
       </c>
       <c r="I119" t="n">
-        <v>94.44411588</v>
+        <v>102.7917024</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99.85530951</v>
+        <v>100.77470227</v>
       </c>
       <c r="C120" t="n">
-        <v>97.64228292</v>
+        <v>114.21334122</v>
       </c>
       <c r="D120" t="n">
-        <v>100.0568837</v>
+        <v>100.19143698</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>95.99974579000001</v>
+        <v>104.80306381</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>98.58532015</v>
+        <v>89.82848713</v>
       </c>
       <c r="I120" t="n">
-        <v>92.09889142</v>
+        <v>102.91760972</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>101.4999744</v>
+        <v>99.66496548000001</v>
       </c>
       <c r="C121" t="n">
-        <v>98.7942855</v>
+        <v>114.55697188</v>
       </c>
       <c r="D121" t="n">
-        <v>100.1692099</v>
+        <v>99.98531106</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>99.60748983000001</v>
+        <v>106.44702108</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>101.816566</v>
+        <v>92.51888221</v>
       </c>
       <c r="I121" t="n">
-        <v>94.99739815</v>
+        <v>97.29298574000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>101.1332751</v>
+        <v>98.8</v>
       </c>
       <c r="C122" t="n">
-        <v>98.44812481</v>
+        <v>95.7</v>
       </c>
       <c r="D122" t="n">
-        <v>100.0300699</v>
+        <v>100.2</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>96.99731097999999</v>
+        <v>98</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>104.2243109</v>
+        <v>101.7</v>
       </c>
       <c r="I122" t="n">
-        <v>93.85926069</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.22927601000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>98.15908453</v>
+        <v>95.5</v>
       </c>
       <c r="D123" t="n">
-        <v>100.1976561</v>
+        <v>100</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>104.6073331</v>
+        <v>98.7</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>95.72577755</v>
+        <v>100.2</v>
       </c>
       <c r="I123" t="n">
-        <v>99.12908696</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.70089535</v>
+        <v>100.8</v>
       </c>
       <c r="C124" t="n">
-        <v>99.56438544</v>
+        <v>103.9</v>
       </c>
       <c r="D124" t="n">
-        <v>99.99441655</v>
+        <v>100</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>103.2563886</v>
+        <v>102.3</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>90.78948957</v>
+        <v>103.5</v>
       </c>
       <c r="I124" t="n">
-        <v>107.2345844</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>98.75937602</v>
+        <v>104.74295407</v>
       </c>
       <c r="C125" t="n">
-        <v>100.6117728</v>
+        <v>106.01116223</v>
       </c>
       <c r="D125" t="n">
-        <v>100.0920968</v>
+        <v>99.86725002</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>112.7433232</v>
+        <v>96.75151558</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>95.59421367</v>
+        <v>105.5815908</v>
       </c>
       <c r="I125" t="n">
-        <v>108.3175421</v>
+        <v>115.56107084</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>98.08798413</v>
+        <v>103.06619944</v>
       </c>
       <c r="C126" t="n">
-        <v>100.8075189</v>
+        <v>107.26503359</v>
       </c>
       <c r="D126" t="n">
-        <v>100.0681713</v>
+        <v>100.4733286</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>105.1357257</v>
+        <v>94.58761336000001</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>102.2709901</v>
+        <v>104.87439987</v>
       </c>
       <c r="I126" t="n">
-        <v>99.65643489999999</v>
+        <v>109.33770208</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99.52419722</v>
+        <v>96.34421421</v>
       </c>
       <c r="C127" t="n">
-        <v>100.3138256</v>
+        <v>94.8162626</v>
       </c>
       <c r="D127" t="n">
-        <v>100.010758</v>
+        <v>99.97790772</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>95.48643601000001</v>
+        <v>95.79358585999999</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>100.9083698</v>
+        <v>99.73817456</v>
       </c>
       <c r="I127" t="n">
-        <v>100.525643</v>
+        <v>87.6087739</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>98.71421589000001</v>
+        <v>100.13375501</v>
       </c>
       <c r="C128" t="n">
-        <v>99.87264178</v>
+        <v>94.71911591</v>
       </c>
       <c r="D128" t="n">
-        <v>100.0813919</v>
+        <v>100.5152742</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>101.5854799</v>
+        <v>98.23714145</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>102.3954057</v>
+        <v>97.75715656</v>
       </c>
       <c r="I128" t="n">
-        <v>95.27542763</v>
+        <v>91.92569353</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>101.1861081</v>
+        <v>101.22414036</v>
       </c>
       <c r="C129" t="n">
-        <v>100.7861442</v>
+        <v>94.57673142</v>
       </c>
       <c r="D129" t="n">
-        <v>100.1501538</v>
+        <v>100.27768078</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>104.2767215</v>
+        <v>96.20022892</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>105.423426</v>
+        <v>99.16755286</v>
       </c>
       <c r="I129" t="n">
-        <v>100.8732289</v>
+        <v>87.53936784</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>102.8925595</v>
+        <v>99.97676907</v>
       </c>
       <c r="C130" t="n">
-        <v>100.4941772</v>
+        <v>101.9996484</v>
       </c>
       <c r="D130" t="n">
-        <v>100.1646706</v>
+        <v>100.09480852</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>100.7008394</v>
+        <v>96.43852106999999</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>105.7907484</v>
+        <v>92.15951487</v>
       </c>
       <c r="I130" t="n">
-        <v>109.6848561</v>
+        <v>103.31929591</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>108.1006146</v>
+        <v>100.40439775</v>
       </c>
       <c r="C131" t="n">
-        <v>102.0368483</v>
+        <v>107.00597083</v>
       </c>
       <c r="D131" t="n">
-        <v>100.1289196</v>
+        <v>99.98769989</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>100.4303768</v>
+        <v>102.95440992</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>106.0022828</v>
+        <v>95.71962061000001</v>
       </c>
       <c r="I131" t="n">
-        <v>118.410657</v>
+        <v>106.05001163</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>96.97430337</v>
+        <v>99.52827443</v>
       </c>
       <c r="C132" t="n">
-        <v>94.83145465</v>
+        <v>101.28035558</v>
       </c>
       <c r="D132" t="n">
-        <v>100.0306093</v>
+        <v>100.06330294</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>92.63814252</v>
+        <v>108.9450161</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>97.67464136</v>
+        <v>99.7276454</v>
       </c>
       <c r="I132" t="n">
-        <v>85.21210692</v>
+        <v>106.07267661</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>98.69842446</v>
+        <v>98.92398432</v>
       </c>
       <c r="C133" t="n">
-        <v>96.39463179000001</v>
+        <v>99.34843995999999</v>
       </c>
       <c r="D133" t="n">
-        <v>99.98658688</v>
+        <v>99.93182662</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>97.35357098</v>
+        <v>100.86272959</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>98.85972562000001</v>
+        <v>107.73270244</v>
       </c>
       <c r="I133" t="n">
-        <v>94.20720922</v>
+        <v>102.43294619</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>98.87554531000001</v>
+        <v>97.7</v>
       </c>
       <c r="C134" t="n">
-        <v>97.99717567</v>
+        <v>98.7</v>
       </c>
       <c r="D134" t="n">
-        <v>99.90887325999999</v>
+        <v>100.3</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>101.4062461</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>97.18038638</v>
+        <v>103.2</v>
       </c>
       <c r="I134" t="n">
-        <v>95.45904456</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>99.13126459</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>100.49219922</v>
+        <v>104.7</v>
       </c>
       <c r="D135" t="n">
-        <v>99.92727373</v>
+        <v>100.7</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>100.03576025</v>
+        <v>103</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>92.87348781</v>
+        <v>104.2</v>
       </c>
       <c r="I135" t="n">
-        <v>98.40362051</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>99.56641071999999</v>
+        <v>100.5</v>
       </c>
       <c r="C136" t="n">
-        <v>101.32597211</v>
+        <v>100.5</v>
       </c>
       <c r="D136" t="n">
-        <v>99.95002088</v>
+        <v>100.7</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>100.34029197</v>
+        <v>98.2</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>96.3714535</v>
+        <v>103.2</v>
       </c>
       <c r="I136" t="n">
-        <v>101.95815002</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.6311994</v>
+        <v>103.6</v>
       </c>
       <c r="C137" t="n">
-        <v>103.40350737</v>
+        <v>103.5</v>
       </c>
       <c r="D137" t="n">
-        <v>100.02308568</v>
+        <v>100.3</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>111.55924046</v>
+        <v>109.1</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>100.48275004</v>
+        <v>102.2</v>
       </c>
       <c r="I137" t="n">
-        <v>108.85459779</v>
+        <v>119.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>98.21587323</v>
+        <v>109</v>
       </c>
       <c r="C138" t="n">
-        <v>102.24327106</v>
+        <v>99.3</v>
       </c>
       <c r="D138" t="n">
-        <v>100.16026836</v>
+        <v>100.2</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>102.09684291</v>
+        <v>96.3</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>106.47333097</v>
+        <v>106</v>
       </c>
       <c r="I138" t="n">
-        <v>109.79716355</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>99.09970009</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>101.09328042</v>
+        <v>93.8</v>
       </c>
       <c r="D139" t="n">
-        <v>100.18150841</v>
+        <v>100</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>96.79097074000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>102.23134991</v>
+        <v>100.1</v>
       </c>
       <c r="I139" t="n">
-        <v>96.31369804000001</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.8375722</v>
+        <v>102.8</v>
       </c>
       <c r="C140" t="n">
-        <v>100.35386639</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>100.06793164</v>
+        <v>100.2</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>99.86305443000001</v>
+        <v>101.5</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>103.76076978</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>87.54851794</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>101.29116807</v>
+        <v>102.8</v>
       </c>
       <c r="C141" t="n">
-        <v>100.97810459</v>
+        <v>94.5</v>
       </c>
       <c r="D141" t="n">
-        <v>100.0219338</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>98.80326725</v>
+        <v>102.8</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>101.91515177</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I141" t="n">
-        <v>103.87843563</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>102.04950883</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>99.92769662000001</v>
+        <v>92.8</v>
       </c>
       <c r="D142" t="n">
-        <v>100.09548678</v>
+        <v>100</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>100.23447867</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>102.13959253</v>
+        <v>95.5</v>
       </c>
       <c r="I142" t="n">
-        <v>109.08848344</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>104.08038514</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>100.92697761</v>
+        <v>98.3</v>
       </c>
       <c r="D143" t="n">
-        <v>100.14116366</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>95.75667414999999</v>
+        <v>100.8</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>105.46659865</v>
+        <v>98.2</v>
       </c>
       <c r="I143" t="n">
-        <v>115.94210656</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>96.44488823</v>
+        <v>97.5</v>
       </c>
       <c r="C144" t="n">
-        <v>99.73897276</v>
+        <v>99</v>
       </c>
       <c r="D144" t="n">
-        <v>99.99059621000001</v>
+        <v>100</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>95.23890226</v>
+        <v>107.1</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>100.40265632</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I144" t="n">
-        <v>97.36403378</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100.50265104</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>100.71976689</v>
+        <v>97.8</v>
       </c>
       <c r="D145" t="n">
-        <v>100.03289724</v>
+        <v>99.8</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>102.57490234</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>102.30305059</v>
+        <v>100</v>
       </c>
       <c r="I145" t="n">
-        <v>95.03633229</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>99.869264</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>99.95184236999999</v>
+        <v>104.8</v>
       </c>
       <c r="D146" t="n">
-        <v>99.9779918</v>
+        <v>100.2</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>106.11520837</v>
+        <v>102.1</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>110.10666615</v>
+        <v>98.3</v>
       </c>
       <c r="I146" t="n">
-        <v>92.1096021</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>98.93966989</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>102.25044787</v>
+        <v>100.2</v>
       </c>
       <c r="D147" t="n">
-        <v>99.98059906</v>
+        <v>100.3</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>97.77648958</v>
+        <v>101.2</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>104.90388182</v>
+        <v>101.4</v>
       </c>
       <c r="I147" t="n">
-        <v>90.47017949000001</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100.34772568</v>
+        <v>100.5</v>
       </c>
       <c r="C148" t="n">
-        <v>104.5598927</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>99.9805228</v>
+        <v>100.2</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>103.92797934</v>
+        <v>97.8</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>93.70797906999999</v>
+        <v>104.7</v>
       </c>
       <c r="I148" t="n">
-        <v>102.7917024</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.77470227</v>
+        <v>104.5</v>
       </c>
       <c r="C149" t="n">
-        <v>114.21334122</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>100.19143698</v>
+        <v>99.8</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>104.80306381</v>
+        <v>99</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>89.82848713</v>
+        <v>107.2</v>
       </c>
       <c r="I149" t="n">
-        <v>102.91760972</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>99.66496548000001</v>
+        <v>104.8</v>
       </c>
       <c r="C150" t="n">
-        <v>114.55697188</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>99.98531106</v>
+        <v>100.1</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>106.44702108</v>
+        <v>97</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>92.51888221</v>
+        <v>102.7</v>
       </c>
       <c r="I150" t="n">
-        <v>97.29298574000001</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>98.85169275</v>
+        <v>98</v>
       </c>
       <c r="C151" t="n">
-        <v>114.25621323</v>
+        <v>95.5</v>
       </c>
       <c r="D151" t="n">
-        <v>100.13461805</v>
+        <v>100.4</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>98.73606899000001</v>
+        <v>100.4</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>94.39679615</v>
+        <v>97.8</v>
       </c>
       <c r="I151" t="n">
-        <v>98.32817211</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>99.57685972</v>
+        <v>101.3</v>
       </c>
       <c r="C152" t="n">
-        <v>104.94283821</v>
+        <v>100.5</v>
       </c>
       <c r="D152" t="n">
-        <v>100.16495874</v>
+        <v>100.9</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>99.66333568</v>
+        <v>106.5</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>97.05637495000001</v>
+        <v>105.5</v>
       </c>
       <c r="I152" t="n">
-        <v>101.41079422</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100.07694041</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>96.2497628</v>
+        <v>101.6</v>
       </c>
       <c r="D153" t="n">
-        <v>99.94507053</v>
+        <v>100.6</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>95.39284653</v>
+        <v>101.3</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>100.73895456</v>
+        <v>101.5</v>
       </c>
       <c r="I153" t="n">
-        <v>110.8346389</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>104.74295407</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C154" t="n">
-        <v>106.01116223</v>
+        <v>100.7</v>
       </c>
       <c r="D154" t="n">
-        <v>99.86725002</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>96.75151558</v>
+        <v>95.5</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>105.5815908</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>115.56107084</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>103.06619944</v>
+        <v>100.5</v>
       </c>
       <c r="C155" t="n">
-        <v>107.26503359</v>
+        <v>111.1</v>
       </c>
       <c r="D155" t="n">
-        <v>100.4733286</v>
+        <v>100.2</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>94.58761336000001</v>
+        <v>100.3</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>104.87439987</v>
+        <v>96.3</v>
       </c>
       <c r="I155" t="n">
-        <v>109.33770208</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>96.34421421</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>94.8162626</v>
+        <v>100.4</v>
       </c>
       <c r="D156" t="n">
-        <v>99.97790772</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>95.79358585999999</v>
+        <v>103</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>99.73817456</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I156" t="n">
-        <v>87.6087739</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>100.13375501</v>
+        <v>100.9</v>
       </c>
       <c r="C157" t="n">
-        <v>94.71911591</v>
+        <v>102.8</v>
       </c>
       <c r="D157" t="n">
-        <v>100.5152742</v>
+        <v>100.3</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>98.23714145</v>
+        <v>105.3</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>97.75715656</v>
+        <v>101.2</v>
       </c>
       <c r="I157" t="n">
-        <v>91.92569353</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>101.22414036</v>
+        <v>105.8</v>
       </c>
       <c r="C158" t="n">
-        <v>94.57673142</v>
+        <v>95.2</v>
       </c>
       <c r="D158" t="n">
-        <v>100.27768078</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>96.20022892</v>
+        <v>97.8</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>99.16755286</v>
+        <v>108.9</v>
       </c>
       <c r="I158" t="n">
-        <v>87.53936784</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>99.97676907</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>101.9996484</v>
+        <v>94.3</v>
       </c>
       <c r="D159" t="n">
-        <v>100.09480852</v>
+        <v>100.1</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>96.43852106999999</v>
+        <v>96.5</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>92.15951487</v>
+        <v>98.8</v>
       </c>
       <c r="I159" t="n">
-        <v>103.31929591</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>100.40439775</v>
+        <v>99.3</v>
       </c>
       <c r="C160" t="n">
-        <v>107.00597083</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>99.98769989</v>
+        <v>99.8</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>102.95440992</v>
+        <v>100.3</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>95.71962061000001</v>
+        <v>100.6</v>
       </c>
       <c r="I160" t="n">
-        <v>106.05001163</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.52827443</v>
+        <v>100.5</v>
       </c>
       <c r="C161" t="n">
-        <v>101.28035558</v>
+        <v>98.2</v>
       </c>
       <c r="D161" t="n">
-        <v>100.06330294</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>108.9450161</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>99.7276454</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I161" t="n">
-        <v>106.07267661</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>98.92398432</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C162" t="n">
-        <v>99.34843995999999</v>
+        <v>98.7</v>
       </c>
       <c r="D162" t="n">
-        <v>99.93182662</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>100.86272959</v>
+        <v>98.7</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>107.73270244</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I162" t="n">
-        <v>102.43294619</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>95.7</v>
+        <v>98.7</v>
       </c>
       <c r="D163" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>101.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I163" t="n">
-        <v>97.59999999999999</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>98.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="C164" t="n">
-        <v>95.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>100.2</v>
+        <v>95.2</v>
       </c>
       <c r="I164" t="n">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>103.9</v>
-      </c>
-      <c r="D165" t="n">
-        <v>100</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="I165" t="n">
-        <v>108.8</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="n">
-        <v>109.1</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>119.3</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>109</v>
-      </c>
-      <c r="C167" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D167" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="n">
-        <v>106</v>
-      </c>
-      <c r="I167" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C168" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>100</v>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>85.3</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="C169" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="D169" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="I169" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="C170" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D170" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="I170" t="n">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C171" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="D171" t="n">
-        <v>100</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="I171" t="n">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C172" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D172" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C173" t="n">
-        <v>99</v>
-      </c>
-      <c r="D173" t="n">
-        <v>100</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="I173" t="n">
-        <v>108.4</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C174" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D174" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="n">
-        <v>100</v>
-      </c>
-      <c r="I174" t="n">
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D175" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C176" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="n">
-        <v>103</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>106.4</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="C177" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="D177" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>91.59999999999999</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
